--- a/datasets/selfservice/WA/lab_detail.xlsx
+++ b/datasets/selfservice/WA/lab_detail.xlsx
@@ -294,40 +294,40 @@
     <t>methamphetamine</t>
   </si>
   <si>
+    <t>1-[(2-chlorophenyl)(methylimino)methyl]cyclopentanol</t>
+  </si>
+  <si>
     <t>ketamine</t>
   </si>
   <si>
-    <t>1-[(2-chlorophenyl)(methylimino)methyl]cyclopentanol</t>
+    <t>tropacocaine</t>
+  </si>
+  <si>
+    <t>norcocaine</t>
+  </si>
+  <si>
+    <t>methyl ecgonidine (MED)</t>
   </si>
   <si>
     <t>cocaine</t>
   </si>
   <si>
-    <t>ecgonine methylester (EME)</t>
-  </si>
-  <si>
-    <t>tropacocaine</t>
-  </si>
-  <si>
     <t>phenacetin</t>
-  </si>
-  <si>
-    <t>norcocaine</t>
   </si>
   <si>
     <t>levamisole</t>
   </si>
   <si>
-    <t>methyl ecgonidine (MED)</t>
+    <t>ecgonine methylester (EME)</t>
   </si>
   <si>
     <t>N-methyltryptamine</t>
   </si>
   <si>
-    <t>N,N-dimethyltryptamine (DMT)</t>
+    <t>2-methyl-1,2,3,4-tetrahydro-b-carboline</t>
   </si>
   <si>
-    <t>2-methyl-1,2,3,4-tetrahydro-b-carboline</t>
+    <t>N,N-dimethyltryptamine (DMT)</t>
   </si>
   <si>
     <t>caffeine</t>
@@ -339,34 +339,34 @@
     <t>fentanyl</t>
   </si>
   <si>
-    <t>inositol</t>
+    <t>acetylcodeine</t>
   </si>
   <si>
-    <t>acetylcodeine</t>
+    <t>inositol</t>
   </si>
   <si>
     <t>6-monoacetylmorphine (6-MAM)</t>
   </si>
   <si>
-    <t>ortho-chlorofentanyl</t>
+    <t>papaverine</t>
+  </si>
+  <si>
+    <t>despropionyl ortho-chlorofentanyl</t>
   </si>
   <si>
     <t>4-ANPP</t>
   </si>
   <si>
-    <t>despropionyl ortho-chlorofentanyl</t>
-  </si>
-  <si>
-    <t>papaverine</t>
-  </si>
-  <si>
     <t>heroin</t>
   </si>
   <si>
-    <t>acetaminophen</t>
+    <t>ortho-chlorofentanyl</t>
   </si>
   <si>
     <t>noramidopyrine</t>
+  </si>
+  <si>
+    <t>acetaminophen</t>
   </si>
   <si>
     <t>N-phenylpropanamide</t>
@@ -417,13 +417,13 @@
     <t>tramadol</t>
   </si>
   <si>
-    <t>phenethyl 4-ANPP</t>
-  </si>
-  <si>
     <t>1-phenethyl-4-hydroxypiperidine</t>
   </si>
   <si>
     <t>1-phenethyl-4-propionyloxypiperidine</t>
+  </si>
+  <si>
+    <t>phenethyl 4-ANPP</t>
   </si>
   <si>
     <t>lidocaine</t>
@@ -438,40 +438,40 @@
     <t>537-46-2</t>
   </si>
   <si>
+    <t>6740-87-0</t>
+  </si>
+  <si>
     <t>6740-88-1</t>
   </si>
   <si>
-    <t>6740-87-0</t>
+    <t>537-26-8</t>
+  </si>
+  <si>
+    <t>18717-72-1</t>
+  </si>
+  <si>
+    <t>43021-26-7</t>
   </si>
   <si>
     <t>50-36-2</t>
   </si>
   <si>
-    <t>9/1/7143</t>
-  </si>
-  <si>
-    <t>537-26-8</t>
-  </si>
-  <si>
     <t>62-44-2</t>
-  </si>
-  <si>
-    <t>18717-72-1</t>
   </si>
   <si>
     <t>14769-73-4</t>
   </si>
   <si>
-    <t>43021-26-7</t>
+    <t>9/1/7143</t>
   </si>
   <si>
     <t>61-49-4</t>
   </si>
   <si>
-    <t>61-50-7</t>
+    <t>13100-00-0</t>
   </si>
   <si>
-    <t>13100-00-0</t>
+    <t>61-50-7</t>
   </si>
   <si>
     <t>58-08-2</t>
@@ -483,34 +483,34 @@
     <t>437-38-7</t>
   </si>
   <si>
-    <t>551-72-4</t>
+    <t>6703-27-1</t>
   </si>
   <si>
-    <t>6703-27-1</t>
+    <t>551-72-4</t>
   </si>
   <si>
     <t>2784-73-8</t>
   </si>
   <si>
-    <t>88796-96-7</t>
+    <t>58-74-2</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>21409-26-7</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>58-74-2</t>
-  </si>
-  <si>
     <t>561-27-3</t>
   </si>
   <si>
-    <t>103-90-2</t>
+    <t>88796-96-7</t>
   </si>
   <si>
     <t>519-98-2</t>
+  </si>
+  <si>
+    <t>103-90-2</t>
   </si>
   <si>
     <t>620-71-3</t>
@@ -567,31 +567,31 @@
     <t>44RAL3456C</t>
   </si>
   <si>
+    <t>HGI99H315N</t>
+  </si>
+  <si>
     <t>690G0D6V8H</t>
   </si>
   <si>
-    <t>HGI99H315N</t>
+    <t>1I92X32F6H</t>
+  </si>
+  <si>
+    <t>3SL7BR2M1E</t>
+  </si>
+  <si>
+    <t>58C337KP3E</t>
   </si>
   <si>
     <t>I5Y540LHVR</t>
   </si>
   <si>
-    <t>Y35FJB3QBJ</t>
-  </si>
-  <si>
-    <t>1I92X32F6H</t>
-  </si>
-  <si>
     <t>ER0CTH01H9</t>
-  </si>
-  <si>
-    <t>3SL7BR2M1E</t>
   </si>
   <si>
     <t>2880D3468G</t>
   </si>
   <si>
-    <t>58C337KP3E</t>
+    <t>Y35FJB3QBJ</t>
   </si>
   <si>
     <t>6FRL4L3Z7V</t>
@@ -609,31 +609,31 @@
     <t>UF599785JZ</t>
   </si>
   <si>
-    <t>8LQ63P85IC</t>
+    <t>U59401ETXH</t>
   </si>
   <si>
-    <t>U59401ETXH</t>
+    <t>8LQ63P85IC</t>
   </si>
   <si>
     <t>M5E47P1ZCH</t>
   </si>
   <si>
-    <t>QA3HA2Q9GB</t>
+    <t>DAA13NKG2Q</t>
   </si>
   <si>
     <t>Q88EHD0U8G</t>
   </si>
   <si>
-    <t>DAA13NKG2Q</t>
-  </si>
-  <si>
     <t>70D95007SX</t>
   </si>
   <si>
-    <t>362O9ITL9D</t>
+    <t>QA3HA2Q9GB</t>
   </si>
   <si>
     <t>NER31DE951</t>
+  </si>
+  <si>
+    <t>362O9ITL9D</t>
   </si>
   <si>
     <t>UYP5ZQI00T</t>
@@ -1030,7 +1030,7 @@
         <v>183</v>
       </c>
       <c r="F2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G2" t="s">
         <v>226</v>
@@ -1039,7 +1039,7 @@
         <v>44936</v>
       </c>
       <c r="I2" s="1">
-        <v>772</v>
+        <v>780</v>
       </c>
       <c r="J2" s="1">
         <v>1</v>
@@ -1165,7 +1165,7 @@
         <v>93</v>
       </c>
       <c r="C3" s="1">
-        <v>3821</v>
+        <v>13086940</v>
       </c>
       <c r="D3" t="s">
         <v>141</v>
@@ -1174,7 +1174,7 @@
         <v>184</v>
       </c>
       <c r="F3" t="s">
-        <v>161</v>
+        <v>224</v>
       </c>
       <c r="G3" t="s">
         <v>226</v>
@@ -1183,13 +1183,13 @@
         <v>44935</v>
       </c>
       <c r="I3" s="1">
-        <v>773</v>
+        <v>781</v>
       </c>
       <c r="J3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1">
@@ -1250,10 +1250,10 @@
         <v>0</v>
       </c>
       <c r="AF3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH3" s="1">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>94</v>
       </c>
       <c r="C4" s="1">
-        <v>13086940</v>
+        <v>3821</v>
       </c>
       <c r="D4" t="s">
         <v>142</v>
@@ -1318,7 +1318,7 @@
         <v>185</v>
       </c>
       <c r="F4" t="s">
-        <v>224</v>
+        <v>160</v>
       </c>
       <c r="G4" t="s">
         <v>226</v>
@@ -1327,13 +1327,13 @@
         <v>44935</v>
       </c>
       <c r="I4" s="1">
-        <v>773</v>
+        <v>781</v>
       </c>
       <c r="J4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1">
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="AF4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH4" s="1">
         <v>0</v>
@@ -1453,7 +1453,7 @@
         <v>95</v>
       </c>
       <c r="C5" s="1">
-        <v>446220</v>
+        <v>637578</v>
       </c>
       <c r="D5" t="s">
         <v>143</v>
@@ -1462,7 +1462,7 @@
         <v>186</v>
       </c>
       <c r="F5" t="s">
-        <v>161</v>
+        <v>224</v>
       </c>
       <c r="G5" t="s">
         <v>226</v>
@@ -1471,13 +1471,13 @@
         <v>44931</v>
       </c>
       <c r="I5" s="1">
-        <v>774</v>
+        <v>782</v>
       </c>
       <c r="J5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1">
@@ -1511,10 +1511,10 @@
         <v>0</v>
       </c>
       <c r="W5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y5" s="1">
         <v>0</v>
@@ -1565,7 +1565,7 @@
         <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP5" s="1">
         <v>0</v>
@@ -1597,7 +1597,7 @@
         <v>96</v>
       </c>
       <c r="C6" s="1">
-        <v>104904</v>
+        <v>644007</v>
       </c>
       <c r="D6" t="s">
         <v>144</v>
@@ -1615,7 +1615,7 @@
         <v>44931</v>
       </c>
       <c r="I6" s="1">
-        <v>774</v>
+        <v>782</v>
       </c>
       <c r="J6" s="1">
         <v>0</v>
@@ -1709,7 +1709,7 @@
         <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP6" s="1">
         <v>0</v>
@@ -1741,7 +1741,7 @@
         <v>97</v>
       </c>
       <c r="C7" s="1">
-        <v>637578</v>
+        <v>119478</v>
       </c>
       <c r="D7" t="s">
         <v>145</v>
@@ -1759,7 +1759,7 @@
         <v>44931</v>
       </c>
       <c r="I7" s="1">
-        <v>774</v>
+        <v>782</v>
       </c>
       <c r="J7" s="1">
         <v>0</v>
@@ -1853,7 +1853,7 @@
         <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP7" s="1">
         <v>0</v>
@@ -1885,7 +1885,7 @@
         <v>98</v>
       </c>
       <c r="C8" s="1">
-        <v>4754</v>
+        <v>446220</v>
       </c>
       <c r="D8" t="s">
         <v>146</v>
@@ -1894,7 +1894,7 @@
         <v>189</v>
       </c>
       <c r="F8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G8" t="s">
         <v>226</v>
@@ -1903,7 +1903,7 @@
         <v>44931</v>
       </c>
       <c r="I8" s="1">
-        <v>774</v>
+        <v>782</v>
       </c>
       <c r="J8" s="1">
         <v>1</v>
@@ -1943,10 +1943,10 @@
         <v>0</v>
       </c>
       <c r="W8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y8" s="1">
         <v>0</v>
@@ -2000,7 +2000,7 @@
         <v>0</v>
       </c>
       <c r="AP8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ8" s="1">
         <v>0</v>
@@ -2029,7 +2029,7 @@
         <v>99</v>
       </c>
       <c r="C9" s="1">
-        <v>644007</v>
+        <v>4754</v>
       </c>
       <c r="D9" t="s">
         <v>147</v>
@@ -2038,7 +2038,7 @@
         <v>190</v>
       </c>
       <c r="F9" t="s">
-        <v>224</v>
+        <v>160</v>
       </c>
       <c r="G9" t="s">
         <v>226</v>
@@ -2047,13 +2047,13 @@
         <v>44931</v>
       </c>
       <c r="I9" s="1">
-        <v>774</v>
+        <v>782</v>
       </c>
       <c r="J9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1">
@@ -2141,10 +2141,10 @@
         <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ9" s="1">
         <v>0</v>
@@ -2191,7 +2191,7 @@
         <v>44931</v>
       </c>
       <c r="I10" s="1">
-        <v>774</v>
+        <v>782</v>
       </c>
       <c r="J10" s="1">
         <v>0</v>
@@ -2317,7 +2317,7 @@
         <v>101</v>
       </c>
       <c r="C11" s="1">
-        <v>119478</v>
+        <v>104904</v>
       </c>
       <c r="D11" t="s">
         <v>149</v>
@@ -2335,7 +2335,7 @@
         <v>44931</v>
       </c>
       <c r="I11" s="1">
-        <v>774</v>
+        <v>782</v>
       </c>
       <c r="J11" s="1">
         <v>0</v>
@@ -2479,7 +2479,7 @@
         <v>44930</v>
       </c>
       <c r="I12" s="1">
-        <v>778</v>
+        <v>786</v>
       </c>
       <c r="J12" s="1">
         <v>0</v>
@@ -2605,16 +2605,16 @@
         <v>103</v>
       </c>
       <c r="C13" s="1">
-        <v>6089</v>
+        <v>121896</v>
       </c>
       <c r="D13" t="s">
         <v>151</v>
       </c>
       <c r="E13" t="s">
-        <v>194</v>
+        <v>160</v>
       </c>
       <c r="F13" t="s">
-        <v>161</v>
+        <v>224</v>
       </c>
       <c r="G13" t="s">
         <v>226</v>
@@ -2623,13 +2623,13 @@
         <v>44930</v>
       </c>
       <c r="I13" s="1">
-        <v>778</v>
+        <v>786</v>
       </c>
       <c r="J13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1">
@@ -2749,16 +2749,16 @@
         <v>104</v>
       </c>
       <c r="C14" s="1">
-        <v>121896</v>
+        <v>6089</v>
       </c>
       <c r="D14" t="s">
         <v>152</v>
       </c>
       <c r="E14" t="s">
-        <v>161</v>
+        <v>194</v>
       </c>
       <c r="F14" t="s">
-        <v>224</v>
+        <v>160</v>
       </c>
       <c r="G14" t="s">
         <v>226</v>
@@ -2767,13 +2767,13 @@
         <v>44930</v>
       </c>
       <c r="I14" s="1">
-        <v>778</v>
+        <v>786</v>
       </c>
       <c r="J14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" s="1"/>
       <c r="M14" s="1">
@@ -2890,19 +2890,19 @@
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C15" s="1">
         <v>446220</v>
       </c>
       <c r="D15" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E15" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G15" t="s">
         <v>226</v>
@@ -2911,7 +2911,7 @@
         <v>45006</v>
       </c>
       <c r="I15" s="1">
-        <v>782</v>
+        <v>790</v>
       </c>
       <c r="J15" s="1">
         <v>1</v>
@@ -3034,19 +3034,19 @@
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C16" s="1">
-        <v>3821</v>
+        <v>637578</v>
       </c>
       <c r="D16" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E16" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F16" t="s">
-        <v>161</v>
+        <v>224</v>
       </c>
       <c r="G16" t="s">
         <v>226</v>
@@ -3055,13 +3055,13 @@
         <v>45006</v>
       </c>
       <c r="I16" s="1">
-        <v>782</v>
+        <v>790</v>
       </c>
       <c r="J16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" s="1"/>
       <c r="M16" s="1">
@@ -3122,10 +3122,10 @@
         <v>0</v>
       </c>
       <c r="AF16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH16" s="1">
         <v>0</v>
@@ -3149,7 +3149,7 @@
         <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP16" s="1">
         <v>0</v>
@@ -3178,16 +3178,16 @@
         <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C17" s="1">
-        <v>2519</v>
+        <v>119478</v>
       </c>
       <c r="D17" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="E17" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="F17" t="s">
         <v>224</v>
@@ -3199,7 +3199,7 @@
         <v>45006</v>
       </c>
       <c r="I17" s="1">
-        <v>782</v>
+        <v>790</v>
       </c>
       <c r="J17" s="1">
         <v>0</v>
@@ -3296,7 +3296,7 @@
         <v>0</v>
       </c>
       <c r="AP17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ17" s="1">
         <v>0</v>
@@ -3322,19 +3322,19 @@
         <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C18" s="1">
-        <v>119478</v>
+        <v>3821</v>
       </c>
       <c r="D18" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="E18" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="F18" t="s">
-        <v>224</v>
+        <v>160</v>
       </c>
       <c r="G18" t="s">
         <v>226</v>
@@ -3343,13 +3343,13 @@
         <v>45006</v>
       </c>
       <c r="I18" s="1">
-        <v>782</v>
+        <v>790</v>
       </c>
       <c r="J18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1">
@@ -3410,10 +3410,10 @@
         <v>0</v>
       </c>
       <c r="AF18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH18" s="1">
         <v>0</v>
@@ -3466,16 +3466,16 @@
         <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="C19" s="1">
-        <v>637578</v>
+        <v>2519</v>
       </c>
       <c r="D19" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="E19" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="F19" t="s">
         <v>224</v>
@@ -3487,7 +3487,7 @@
         <v>45006</v>
       </c>
       <c r="I19" s="1">
-        <v>782</v>
+        <v>790</v>
       </c>
       <c r="J19" s="1">
         <v>0</v>
@@ -3581,10 +3581,10 @@
         <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ19" s="1">
         <v>0</v>
@@ -3610,19 +3610,19 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C20" s="1">
-        <v>1614</v>
+        <v>2519</v>
       </c>
       <c r="D20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E20" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F20" t="s">
-        <v>224</v>
+        <v>160</v>
       </c>
       <c r="G20" t="s">
         <v>226</v>
@@ -3631,13 +3631,13 @@
         <v>45001</v>
       </c>
       <c r="I20" s="1">
-        <v>783</v>
+        <v>791</v>
       </c>
       <c r="J20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20" s="1"/>
       <c r="M20" s="1">
@@ -3677,7 +3677,7 @@
         <v>0</v>
       </c>
       <c r="Y20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z20" s="1">
         <v>0</v>
@@ -3728,7 +3728,7 @@
         <v>0</v>
       </c>
       <c r="AP20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ20" s="1">
         <v>0</v>
@@ -3754,19 +3754,19 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C21" s="1">
-        <v>2519</v>
+        <v>1614</v>
       </c>
       <c r="D21" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E21" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F21" t="s">
-        <v>161</v>
+        <v>224</v>
       </c>
       <c r="G21" t="s">
         <v>226</v>
@@ -3775,13 +3775,13 @@
         <v>45001</v>
       </c>
       <c r="I21" s="1">
-        <v>783</v>
+        <v>791</v>
       </c>
       <c r="J21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21" s="1"/>
       <c r="M21" s="1">
@@ -3821,7 +3821,7 @@
         <v>0</v>
       </c>
       <c r="Y21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
         <v>0</v>
@@ -3872,7 +3872,7 @@
         <v>0</v>
       </c>
       <c r="AP21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ21" s="1">
         <v>0</v>
@@ -3910,7 +3910,7 @@
         <v>197</v>
       </c>
       <c r="F22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G22" t="s">
         <v>226</v>
@@ -3919,7 +3919,7 @@
         <v>44930</v>
       </c>
       <c r="I22" s="1">
-        <v>785</v>
+        <v>793</v>
       </c>
       <c r="J22" s="1">
         <v>1</v>
@@ -4045,7 +4045,7 @@
         <v>108</v>
       </c>
       <c r="C23" s="1">
-        <v>892</v>
+        <v>5486550</v>
       </c>
       <c r="D23" t="s">
         <v>156</v>
@@ -4054,7 +4054,7 @@
         <v>198</v>
       </c>
       <c r="F23" t="s">
-        <v>224</v>
+        <v>160</v>
       </c>
       <c r="G23" t="s">
         <v>226</v>
@@ -4063,13 +4063,13 @@
         <v>44930</v>
       </c>
       <c r="I23" s="1">
-        <v>785</v>
+        <v>793</v>
       </c>
       <c r="J23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L23" s="1"/>
       <c r="M23" s="1">
@@ -4145,7 +4145,7 @@
         <v>0</v>
       </c>
       <c r="AK23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL23" s="1">
         <v>0</v>
@@ -4160,10 +4160,10 @@
         <v>0</v>
       </c>
       <c r="AP23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR23" s="1">
         <v>0</v>
@@ -4189,7 +4189,7 @@
         <v>109</v>
       </c>
       <c r="C24" s="1">
-        <v>5486550</v>
+        <v>892</v>
       </c>
       <c r="D24" t="s">
         <v>157</v>
@@ -4198,7 +4198,7 @@
         <v>199</v>
       </c>
       <c r="F24" t="s">
-        <v>161</v>
+        <v>224</v>
       </c>
       <c r="G24" t="s">
         <v>226</v>
@@ -4207,13 +4207,13 @@
         <v>44930</v>
       </c>
       <c r="I24" s="1">
-        <v>785</v>
+        <v>793</v>
       </c>
       <c r="J24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L24" s="1"/>
       <c r="M24" s="1">
@@ -4289,7 +4289,7 @@
         <v>0</v>
       </c>
       <c r="AK24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL24" s="1">
         <v>0</v>
@@ -4304,10 +4304,10 @@
         <v>0</v>
       </c>
       <c r="AP24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR24" s="1">
         <v>0</v>
@@ -4342,7 +4342,7 @@
         <v>183</v>
       </c>
       <c r="F25" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G25" t="s">
         <v>226</v>
@@ -4351,7 +4351,7 @@
         <v>44957</v>
       </c>
       <c r="I25" s="1">
-        <v>786</v>
+        <v>794</v>
       </c>
       <c r="J25" s="1">
         <v>1</v>
@@ -4486,7 +4486,7 @@
         <v>183</v>
       </c>
       <c r="F26" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G26" t="s">
         <v>226</v>
@@ -4495,7 +4495,7 @@
         <v>44930</v>
       </c>
       <c r="I26" s="1">
-        <v>787</v>
+        <v>795</v>
       </c>
       <c r="J26" s="1">
         <v>1</v>
@@ -4618,19 +4618,19 @@
         <v>10</v>
       </c>
       <c r="B27" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C27" s="1">
-        <v>446220</v>
+        <v>644007</v>
       </c>
       <c r="D27" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E27" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F27" t="s">
-        <v>161</v>
+        <v>224</v>
       </c>
       <c r="G27" t="s">
         <v>226</v>
@@ -4639,13 +4639,13 @@
         <v>44935</v>
       </c>
       <c r="I27" s="1">
-        <v>788</v>
+        <v>796</v>
       </c>
       <c r="J27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L27" s="1"/>
       <c r="M27" s="1">
@@ -4679,10 +4679,10 @@
         <v>0</v>
       </c>
       <c r="W27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y27" s="1">
         <v>0</v>
@@ -4733,7 +4733,7 @@
         <v>0</v>
       </c>
       <c r="AO27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP27" s="1">
         <v>0</v>
@@ -4762,19 +4762,19 @@
         <v>10</v>
       </c>
       <c r="B28" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C28" s="1">
-        <v>119478</v>
+        <v>446220</v>
       </c>
       <c r="D28" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E28" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F28" t="s">
-        <v>224</v>
+        <v>160</v>
       </c>
       <c r="G28" t="s">
         <v>226</v>
@@ -4783,13 +4783,13 @@
         <v>44935</v>
       </c>
       <c r="I28" s="1">
-        <v>788</v>
+        <v>796</v>
       </c>
       <c r="J28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L28" s="1"/>
       <c r="M28" s="1">
@@ -4823,10 +4823,10 @@
         <v>0</v>
       </c>
       <c r="W28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y28" s="1">
         <v>0</v>
@@ -4906,16 +4906,16 @@
         <v>10</v>
       </c>
       <c r="B29" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C29" s="1">
-        <v>644007</v>
+        <v>119478</v>
       </c>
       <c r="D29" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E29" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F29" t="s">
         <v>224</v>
@@ -4927,7 +4927,7 @@
         <v>44935</v>
       </c>
       <c r="I29" s="1">
-        <v>788</v>
+        <v>796</v>
       </c>
       <c r="J29" s="1">
         <v>0</v>
@@ -5021,7 +5021,7 @@
         <v>0</v>
       </c>
       <c r="AO29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP29" s="1">
         <v>0</v>
@@ -5062,7 +5062,7 @@
         <v>196</v>
       </c>
       <c r="F30" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G30" t="s">
         <v>226</v>
@@ -5071,7 +5071,7 @@
         <v>44956</v>
       </c>
       <c r="I30" s="1">
-        <v>790</v>
+        <v>798</v>
       </c>
       <c r="J30" s="1">
         <v>1</v>
@@ -5194,19 +5194,19 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C31" s="1">
         <v>3821</v>
       </c>
       <c r="D31" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E31" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F31" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G31" t="s">
         <v>226</v>
@@ -5215,7 +5215,7 @@
         <v>44956</v>
       </c>
       <c r="I31" s="1">
-        <v>790</v>
+        <v>798</v>
       </c>
       <c r="J31" s="1">
         <v>1</v>
@@ -5338,19 +5338,19 @@
         <v>12</v>
       </c>
       <c r="B32" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C32" s="1">
-        <v>5486550</v>
+        <v>5462507</v>
       </c>
       <c r="D32" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E32" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F32" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G32" t="s">
         <v>226</v>
@@ -5359,7 +5359,7 @@
         <v>44951</v>
       </c>
       <c r="I32" s="1">
-        <v>792</v>
+        <v>800</v>
       </c>
       <c r="J32" s="1">
         <v>1</v>
@@ -5459,7 +5459,7 @@
         <v>0</v>
       </c>
       <c r="AQ32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR32" s="1">
         <v>0</v>
@@ -5482,19 +5482,19 @@
         <v>12</v>
       </c>
       <c r="B33" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C33" s="1">
-        <v>5462507</v>
+        <v>5486550</v>
       </c>
       <c r="D33" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E33" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F33" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G33" t="s">
         <v>226</v>
@@ -5503,7 +5503,7 @@
         <v>44951</v>
       </c>
       <c r="I33" s="1">
-        <v>792</v>
+        <v>800</v>
       </c>
       <c r="J33" s="1">
         <v>1</v>
@@ -5603,7 +5603,7 @@
         <v>0</v>
       </c>
       <c r="AQ33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR33" s="1">
         <v>0</v>
@@ -5626,16 +5626,16 @@
         <v>12</v>
       </c>
       <c r="B34" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C34" s="1">
-        <v>12741858</v>
+        <v>3345</v>
       </c>
       <c r="D34" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E34" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F34" t="s">
         <v>224</v>
@@ -5647,7 +5647,7 @@
         <v>44951</v>
       </c>
       <c r="I34" s="1">
-        <v>792</v>
+        <v>800</v>
       </c>
       <c r="J34" s="1">
         <v>0</v>
@@ -5669,7 +5669,7 @@
         <v>0</v>
       </c>
       <c r="Q34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R34" s="1">
         <v>0</v>
@@ -5770,16 +5770,16 @@
         <v>12</v>
       </c>
       <c r="B35" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C35" s="1">
-        <v>88890</v>
+        <v>4680</v>
       </c>
       <c r="D35" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E35" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F35" t="s">
         <v>224</v>
@@ -5791,7 +5791,7 @@
         <v>44951</v>
       </c>
       <c r="I35" s="1">
-        <v>792</v>
+        <v>800</v>
       </c>
       <c r="J35" s="1">
         <v>0</v>
@@ -5873,7 +5873,7 @@
         <v>0</v>
       </c>
       <c r="AK35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL35" s="1">
         <v>0</v>
@@ -5891,13 +5891,13 @@
         <v>0</v>
       </c>
       <c r="AQ35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR35" s="1">
         <v>0</v>
       </c>
       <c r="AS35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT35" s="1">
         <v>0</v>
@@ -5914,19 +5914,19 @@
         <v>12</v>
       </c>
       <c r="B36" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C36" s="1">
         <v>23324799</v>
       </c>
       <c r="D36" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E36" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F36" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G36" t="s">
         <v>226</v>
@@ -5935,7 +5935,7 @@
         <v>44951</v>
       </c>
       <c r="I36" s="1">
-        <v>792</v>
+        <v>800</v>
       </c>
       <c r="J36" s="1">
         <v>1</v>
@@ -6058,16 +6058,16 @@
         <v>12</v>
       </c>
       <c r="B37" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C37" s="1">
-        <v>4680</v>
+        <v>88890</v>
       </c>
       <c r="D37" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E37" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F37" t="s">
         <v>224</v>
@@ -6079,7 +6079,7 @@
         <v>44951</v>
       </c>
       <c r="I37" s="1">
-        <v>792</v>
+        <v>800</v>
       </c>
       <c r="J37" s="1">
         <v>0</v>
@@ -6161,7 +6161,7 @@
         <v>0</v>
       </c>
       <c r="AK37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL37" s="1">
         <v>0</v>
@@ -6179,13 +6179,13 @@
         <v>0</v>
       </c>
       <c r="AQ37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR37" s="1">
         <v>0</v>
       </c>
       <c r="AS37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT37" s="1">
         <v>0</v>
@@ -6202,19 +6202,19 @@
         <v>12</v>
       </c>
       <c r="B38" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="C38" s="1">
-        <v>3345</v>
+        <v>5462328</v>
       </c>
       <c r="D38" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="E38" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="F38" t="s">
-        <v>224</v>
+        <v>160</v>
       </c>
       <c r="G38" t="s">
         <v>226</v>
@@ -6223,13 +6223,13 @@
         <v>44951</v>
       </c>
       <c r="I38" s="1">
-        <v>792</v>
+        <v>800</v>
       </c>
       <c r="J38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L38" s="1"/>
       <c r="M38" s="1">
@@ -6245,7 +6245,7 @@
         <v>0</v>
       </c>
       <c r="Q38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R38" s="1">
         <v>0</v>
@@ -6349,7 +6349,7 @@
         <v>115</v>
       </c>
       <c r="C39" s="1">
-        <v>5462328</v>
+        <v>12741858</v>
       </c>
       <c r="D39" t="s">
         <v>163</v>
@@ -6358,7 +6358,7 @@
         <v>204</v>
       </c>
       <c r="F39" t="s">
-        <v>161</v>
+        <v>224</v>
       </c>
       <c r="G39" t="s">
         <v>226</v>
@@ -6367,13 +6367,13 @@
         <v>44951</v>
       </c>
       <c r="I39" s="1">
-        <v>792</v>
+        <v>800</v>
       </c>
       <c r="J39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L39" s="1"/>
       <c r="M39" s="1">
@@ -6502,7 +6502,7 @@
         <v>183</v>
       </c>
       <c r="F40" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G40" t="s">
         <v>226</v>
@@ -6511,7 +6511,7 @@
         <v>44930</v>
       </c>
       <c r="I40" s="1">
-        <v>794</v>
+        <v>802</v>
       </c>
       <c r="J40" s="1">
         <v>1</v>
@@ -6646,7 +6646,7 @@
         <v>183</v>
       </c>
       <c r="F41" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G41" t="s">
         <v>226</v>
@@ -6655,7 +6655,7 @@
         <v>44957</v>
       </c>
       <c r="I41" s="1">
-        <v>795</v>
+        <v>803</v>
       </c>
       <c r="J41" s="1">
         <v>1</v>
@@ -6778,19 +6778,19 @@
         <v>15</v>
       </c>
       <c r="B42" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C42" s="1">
         <v>88890</v>
       </c>
       <c r="D42" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E42" t="s">
         <v>202</v>
       </c>
       <c r="F42" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G42" t="s">
         <v>226</v>
@@ -6799,7 +6799,7 @@
         <v>44930</v>
       </c>
       <c r="I42" s="1">
-        <v>796</v>
+        <v>804</v>
       </c>
       <c r="J42" s="1">
         <v>1</v>
@@ -6925,7 +6925,7 @@
         <v>116</v>
       </c>
       <c r="C43" s="1">
-        <v>1983</v>
+        <v>10618</v>
       </c>
       <c r="D43" t="s">
         <v>164</v>
@@ -6934,7 +6934,7 @@
         <v>205</v>
       </c>
       <c r="F43" t="s">
-        <v>161</v>
+        <v>224</v>
       </c>
       <c r="G43" t="s">
         <v>226</v>
@@ -6943,13 +6943,13 @@
         <v>44930</v>
       </c>
       <c r="I43" s="1">
-        <v>796</v>
+        <v>804</v>
       </c>
       <c r="J43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L43" s="1"/>
       <c r="M43" s="1">
@@ -7078,7 +7078,7 @@
         <v>197</v>
       </c>
       <c r="F44" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G44" t="s">
         <v>226</v>
@@ -7087,7 +7087,7 @@
         <v>44930</v>
       </c>
       <c r="I44" s="1">
-        <v>796</v>
+        <v>804</v>
       </c>
       <c r="J44" s="1">
         <v>1</v>
@@ -7213,7 +7213,7 @@
         <v>117</v>
       </c>
       <c r="C45" s="1">
-        <v>10618</v>
+        <v>1983</v>
       </c>
       <c r="D45" t="s">
         <v>165</v>
@@ -7222,7 +7222,7 @@
         <v>206</v>
       </c>
       <c r="F45" t="s">
-        <v>224</v>
+        <v>160</v>
       </c>
       <c r="G45" t="s">
         <v>226</v>
@@ -7231,13 +7231,13 @@
         <v>44930</v>
       </c>
       <c r="I45" s="1">
-        <v>796</v>
+        <v>804</v>
       </c>
       <c r="J45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L45" s="1"/>
       <c r="M45" s="1">
@@ -7366,7 +7366,7 @@
         <v>183</v>
       </c>
       <c r="F46" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G46" t="s">
         <v>226</v>
@@ -7375,7 +7375,7 @@
         <v>45007</v>
       </c>
       <c r="I46" s="1">
-        <v>798</v>
+        <v>806</v>
       </c>
       <c r="J46" s="1">
         <v>1</v>
@@ -7498,19 +7498,19 @@
         <v>17</v>
       </c>
       <c r="B47" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C47" s="1">
-        <v>88890</v>
+        <v>12107</v>
       </c>
       <c r="D47" t="s">
+        <v>166</v>
+      </c>
+      <c r="E47" t="s">
+        <v>207</v>
+      </c>
+      <c r="F47" t="s">
         <v>160</v>
-      </c>
-      <c r="E47" t="s">
-        <v>202</v>
-      </c>
-      <c r="F47" t="s">
-        <v>161</v>
       </c>
       <c r="G47" t="s">
         <v>226</v>
@@ -7519,7 +7519,7 @@
         <v>44935</v>
       </c>
       <c r="I47" s="1">
-        <v>801</v>
+        <v>809</v>
       </c>
       <c r="J47" s="1">
         <v>1</v>
@@ -7642,19 +7642,19 @@
         <v>17</v>
       </c>
       <c r="B48" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C48" s="1">
-        <v>12107</v>
+        <v>88890</v>
       </c>
       <c r="D48" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E48" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F48" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G48" t="s">
         <v>226</v>
@@ -7663,7 +7663,7 @@
         <v>44935</v>
       </c>
       <c r="I48" s="1">
-        <v>801</v>
+        <v>809</v>
       </c>
       <c r="J48" s="1">
         <v>1</v>
@@ -7798,7 +7798,7 @@
         <v>197</v>
       </c>
       <c r="F49" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G49" t="s">
         <v>226</v>
@@ -7807,7 +7807,7 @@
         <v>44935</v>
       </c>
       <c r="I49" s="1">
-        <v>801</v>
+        <v>809</v>
       </c>
       <c r="J49" s="1">
         <v>1</v>
@@ -7942,7 +7942,7 @@
         <v>208</v>
       </c>
       <c r="F50" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G50" t="s">
         <v>226</v>
@@ -7951,7 +7951,7 @@
         <v>44932</v>
       </c>
       <c r="I50" s="1">
-        <v>802</v>
+        <v>810</v>
       </c>
       <c r="J50" s="1">
         <v>1</v>
@@ -8074,19 +8074,19 @@
         <v>19</v>
       </c>
       <c r="B51" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C51" s="1">
-        <v>119478</v>
+        <v>446220</v>
       </c>
       <c r="D51" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E51" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F51" t="s">
-        <v>224</v>
+        <v>160</v>
       </c>
       <c r="G51" t="s">
         <v>226</v>
@@ -8095,13 +8095,13 @@
         <v>44951</v>
       </c>
       <c r="I51" s="1">
-        <v>804</v>
+        <v>812</v>
       </c>
       <c r="J51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L51" s="1"/>
       <c r="M51" s="1">
@@ -8135,10 +8135,10 @@
         <v>0</v>
       </c>
       <c r="W51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y51" s="1">
         <v>0</v>
@@ -8218,16 +8218,16 @@
         <v>19</v>
       </c>
       <c r="B52" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C52" s="1">
         <v>104904</v>
       </c>
       <c r="D52" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="E52" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="F52" t="s">
         <v>224</v>
@@ -8239,7 +8239,7 @@
         <v>44951</v>
       </c>
       <c r="I52" s="1">
-        <v>804</v>
+        <v>812</v>
       </c>
       <c r="J52" s="1">
         <v>0</v>
@@ -8362,19 +8362,19 @@
         <v>19</v>
       </c>
       <c r="B53" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C53" s="1">
-        <v>446220</v>
+        <v>119478</v>
       </c>
       <c r="D53" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E53" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F53" t="s">
-        <v>161</v>
+        <v>224</v>
       </c>
       <c r="G53" t="s">
         <v>226</v>
@@ -8383,13 +8383,13 @@
         <v>44951</v>
       </c>
       <c r="I53" s="1">
-        <v>804</v>
+        <v>812</v>
       </c>
       <c r="J53" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K53" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L53" s="1"/>
       <c r="M53" s="1">
@@ -8423,10 +8423,10 @@
         <v>0</v>
       </c>
       <c r="W53" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X53" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y53" s="1">
         <v>0</v>
@@ -8506,16 +8506,16 @@
         <v>19</v>
       </c>
       <c r="B54" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C54" s="1">
         <v>637578</v>
       </c>
       <c r="D54" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E54" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F54" t="s">
         <v>224</v>
@@ -8527,7 +8527,7 @@
         <v>44951</v>
       </c>
       <c r="I54" s="1">
-        <v>804</v>
+        <v>812</v>
       </c>
       <c r="J54" s="1">
         <v>0</v>
@@ -8671,7 +8671,7 @@
         <v>44931</v>
       </c>
       <c r="I55" s="1">
-        <v>806</v>
+        <v>814</v>
       </c>
       <c r="J55" s="1">
         <v>0</v>
@@ -8815,7 +8815,7 @@
         <v>44931</v>
       </c>
       <c r="I56" s="1">
-        <v>806</v>
+        <v>814</v>
       </c>
       <c r="J56" s="1">
         <v>0</v>
@@ -8950,7 +8950,7 @@
         <v>196</v>
       </c>
       <c r="F57" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G57" t="s">
         <v>226</v>
@@ -8959,7 +8959,7 @@
         <v>44931</v>
       </c>
       <c r="I57" s="1">
-        <v>806</v>
+        <v>814</v>
       </c>
       <c r="J57" s="1">
         <v>1</v>
@@ -9094,7 +9094,7 @@
         <v>209</v>
       </c>
       <c r="F58" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G58" t="s">
         <v>226</v>
@@ -9103,7 +9103,7 @@
         <v>44931</v>
       </c>
       <c r="I58" s="1">
-        <v>807</v>
+        <v>815</v>
       </c>
       <c r="J58" s="1">
         <v>1</v>
@@ -9226,19 +9226,19 @@
         <v>22</v>
       </c>
       <c r="B59" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C59" s="1">
-        <v>5462328</v>
+        <v>5462507</v>
       </c>
       <c r="D59" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="E59" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F59" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G59" t="s">
         <v>226</v>
@@ -9247,7 +9247,7 @@
         <v>44930</v>
       </c>
       <c r="I59" s="1">
-        <v>808</v>
+        <v>816</v>
       </c>
       <c r="J59" s="1">
         <v>1</v>
@@ -9370,19 +9370,19 @@
         <v>22</v>
       </c>
       <c r="B60" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C60" s="1">
-        <v>5486550</v>
+        <v>4680</v>
       </c>
       <c r="D60" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E60" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F60" t="s">
-        <v>161</v>
+        <v>224</v>
       </c>
       <c r="G60" t="s">
         <v>226</v>
@@ -9391,13 +9391,13 @@
         <v>44930</v>
       </c>
       <c r="I60" s="1">
-        <v>808</v>
+        <v>816</v>
       </c>
       <c r="J60" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K60" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L60" s="1"/>
       <c r="M60" s="1">
@@ -9514,19 +9514,19 @@
         <v>22</v>
       </c>
       <c r="B61" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C61" s="1">
-        <v>5462507</v>
+        <v>5462328</v>
       </c>
       <c r="D61" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E61" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="F61" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G61" t="s">
         <v>226</v>
@@ -9535,7 +9535,7 @@
         <v>44930</v>
       </c>
       <c r="I61" s="1">
-        <v>808</v>
+        <v>816</v>
       </c>
       <c r="J61" s="1">
         <v>1</v>
@@ -9658,19 +9658,19 @@
         <v>22</v>
       </c>
       <c r="B62" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C62" s="1">
-        <v>4680</v>
+        <v>5486550</v>
       </c>
       <c r="D62" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="E62" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="F62" t="s">
-        <v>224</v>
+        <v>160</v>
       </c>
       <c r="G62" t="s">
         <v>226</v>
@@ -9679,13 +9679,13 @@
         <v>44930</v>
       </c>
       <c r="I62" s="1">
-        <v>808</v>
+        <v>816</v>
       </c>
       <c r="J62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K62" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L62" s="1"/>
       <c r="M62" s="1">
@@ -9814,7 +9814,7 @@
         <v>210</v>
       </c>
       <c r="F63" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G63" t="s">
         <v>226</v>
@@ -9823,7 +9823,7 @@
         <v>44930</v>
       </c>
       <c r="I63" s="1">
-        <v>811</v>
+        <v>819</v>
       </c>
       <c r="J63" s="1">
         <v>1</v>
@@ -9958,7 +9958,7 @@
         <v>209</v>
       </c>
       <c r="F64" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G64" t="s">
         <v>226</v>
@@ -9967,7 +9967,7 @@
         <v>45006</v>
       </c>
       <c r="I64" s="1">
-        <v>812</v>
+        <v>820</v>
       </c>
       <c r="J64" s="1">
         <v>1</v>
@@ -10102,7 +10102,7 @@
         <v>183</v>
       </c>
       <c r="F65" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G65" t="s">
         <v>226</v>
@@ -10111,7 +10111,7 @@
         <v>44935</v>
       </c>
       <c r="I65" s="1">
-        <v>814</v>
+        <v>822</v>
       </c>
       <c r="J65" s="1">
         <v>1</v>
@@ -10234,16 +10234,16 @@
         <v>26</v>
       </c>
       <c r="B66" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C66" s="1">
         <v>637578</v>
       </c>
       <c r="D66" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E66" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F66" t="s">
         <v>224</v>
@@ -10255,7 +10255,7 @@
         <v>44935</v>
       </c>
       <c r="I66" s="1">
-        <v>815</v>
+        <v>823</v>
       </c>
       <c r="J66" s="1">
         <v>0</v>
@@ -10378,19 +10378,19 @@
         <v>26</v>
       </c>
       <c r="B67" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C67" s="1">
         <v>446220</v>
       </c>
       <c r="D67" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E67" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F67" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G67" t="s">
         <v>226</v>
@@ -10399,7 +10399,7 @@
         <v>44935</v>
       </c>
       <c r="I67" s="1">
-        <v>815</v>
+        <v>823</v>
       </c>
       <c r="J67" s="1">
         <v>1</v>
@@ -10522,16 +10522,16 @@
         <v>26</v>
       </c>
       <c r="B68" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C68" s="1">
         <v>119478</v>
       </c>
       <c r="D68" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E68" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F68" t="s">
         <v>224</v>
@@ -10543,7 +10543,7 @@
         <v>44935</v>
       </c>
       <c r="I68" s="1">
-        <v>815</v>
+        <v>823</v>
       </c>
       <c r="J68" s="1">
         <v>0</v>
@@ -10678,7 +10678,7 @@
         <v>209</v>
       </c>
       <c r="F69" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G69" t="s">
         <v>226</v>
@@ -10687,7 +10687,7 @@
         <v>45005</v>
       </c>
       <c r="I69" s="1">
-        <v>816</v>
+        <v>824</v>
       </c>
       <c r="J69" s="1">
         <v>1</v>
@@ -10810,19 +10810,19 @@
         <v>28</v>
       </c>
       <c r="B70" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="C70" s="1">
-        <v>3345</v>
+        <v>1983</v>
       </c>
       <c r="D70" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="E70" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="F70" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G70" t="s">
         <v>226</v>
@@ -10831,7 +10831,7 @@
         <v>44936</v>
       </c>
       <c r="I70" s="1">
-        <v>817</v>
+        <v>825</v>
       </c>
       <c r="J70" s="1">
         <v>1</v>
@@ -10850,10 +10850,10 @@
         <v>1</v>
       </c>
       <c r="P70" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q70" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R70" s="1">
         <v>0</v>
@@ -10913,7 +10913,7 @@
         <v>0</v>
       </c>
       <c r="AK70" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL70" s="1">
         <v>0</v>
@@ -10954,19 +10954,19 @@
         <v>28</v>
       </c>
       <c r="B71" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C71" s="1">
-        <v>1983</v>
+        <v>88890</v>
       </c>
       <c r="D71" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E71" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F71" t="s">
-        <v>161</v>
+        <v>224</v>
       </c>
       <c r="G71" t="s">
         <v>226</v>
@@ -10975,13 +10975,13 @@
         <v>44936</v>
       </c>
       <c r="I71" s="1">
-        <v>817</v>
+        <v>825</v>
       </c>
       <c r="J71" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K71" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L71" s="1"/>
       <c r="M71" s="1">
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="AS71" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT71" s="1">
         <v>0</v>
@@ -11098,19 +11098,19 @@
         <v>28</v>
       </c>
       <c r="B72" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C72" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D72" t="s">
+        <v>155</v>
+      </c>
+      <c r="E72" t="s">
+        <v>197</v>
+      </c>
+      <c r="F72" t="s">
         <v>160</v>
-      </c>
-      <c r="E72" t="s">
-        <v>202</v>
-      </c>
-      <c r="F72" t="s">
-        <v>224</v>
       </c>
       <c r="G72" t="s">
         <v>226</v>
@@ -11119,13 +11119,13 @@
         <v>44936</v>
       </c>
       <c r="I72" s="1">
-        <v>817</v>
+        <v>825</v>
       </c>
       <c r="J72" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K72" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L72" s="1"/>
       <c r="M72" s="1">
@@ -11138,10 +11138,10 @@
         <v>1</v>
       </c>
       <c r="P72" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q72" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R72" s="1">
         <v>0</v>
@@ -11201,7 +11201,7 @@
         <v>0</v>
       </c>
       <c r="AK72" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL72" s="1">
         <v>0</v>
@@ -11225,7 +11225,7 @@
         <v>0</v>
       </c>
       <c r="AS72" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT72" s="1">
         <v>0</v>
@@ -11242,16 +11242,16 @@
         <v>29</v>
       </c>
       <c r="B73" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C73" s="1">
         <v>13086940</v>
       </c>
       <c r="D73" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E73" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F73" t="s">
         <v>224</v>
@@ -11263,7 +11263,7 @@
         <v>44931</v>
       </c>
       <c r="I73" s="1">
-        <v>818</v>
+        <v>826</v>
       </c>
       <c r="J73" s="1">
         <v>0</v>
@@ -11386,19 +11386,19 @@
         <v>29</v>
       </c>
       <c r="B74" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C74" s="1">
         <v>3821</v>
       </c>
       <c r="D74" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E74" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F74" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G74" t="s">
         <v>226</v>
@@ -11407,7 +11407,7 @@
         <v>44931</v>
       </c>
       <c r="I74" s="1">
-        <v>818</v>
+        <v>826</v>
       </c>
       <c r="J74" s="1">
         <v>1</v>
@@ -11530,19 +11530,19 @@
         <v>30</v>
       </c>
       <c r="B75" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C75" s="1">
-        <v>1615</v>
+        <v>98527</v>
       </c>
       <c r="D75" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E75" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F75" t="s">
-        <v>224</v>
+        <v>160</v>
       </c>
       <c r="G75" t="s">
         <v>226</v>
@@ -11551,13 +11551,13 @@
         <v>44951</v>
       </c>
       <c r="I75" s="1">
-        <v>821</v>
+        <v>829</v>
       </c>
       <c r="J75" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K75" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L75" s="1"/>
       <c r="M75" s="1">
@@ -11606,7 +11606,7 @@
         <v>0</v>
       </c>
       <c r="AB75" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC75" s="1">
         <v>0</v>
@@ -11674,19 +11674,19 @@
         <v>30</v>
       </c>
       <c r="B76" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C76" s="1">
-        <v>98527</v>
+        <v>1615</v>
       </c>
       <c r="D76" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E76" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F76" t="s">
-        <v>161</v>
+        <v>224</v>
       </c>
       <c r="G76" t="s">
         <v>226</v>
@@ -11695,13 +11695,13 @@
         <v>44951</v>
       </c>
       <c r="I76" s="1">
-        <v>821</v>
+        <v>829</v>
       </c>
       <c r="J76" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K76" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L76" s="1"/>
       <c r="M76" s="1">
@@ -11750,7 +11750,7 @@
         <v>0</v>
       </c>
       <c r="AB76" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC76" s="1">
         <v>0</v>
@@ -11818,17 +11818,19 @@
         <v>31</v>
       </c>
       <c r="B77" t="s">
-        <v>123</v>
-      </c>
-      <c r="C77" s="1"/>
+        <v>98</v>
+      </c>
+      <c r="C77" s="1">
+        <v>446220</v>
+      </c>
       <c r="D77" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="E77" t="s">
-        <v>161</v>
+        <v>189</v>
       </c>
       <c r="F77" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G77" t="s">
         <v>226</v>
@@ -11837,7 +11839,7 @@
         <v>45009</v>
       </c>
       <c r="I77" s="1">
-        <v>822</v>
+        <v>830</v>
       </c>
       <c r="J77" s="1">
         <v>1</v>
@@ -11877,10 +11879,10 @@
         <v>0</v>
       </c>
       <c r="W77" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X77" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y77" s="1">
         <v>0</v>
@@ -11981,7 +11983,7 @@
         <v>45009</v>
       </c>
       <c r="I78" s="1">
-        <v>822</v>
+        <v>830</v>
       </c>
       <c r="J78" s="1">
         <v>0</v>
@@ -12104,19 +12106,17 @@
         <v>31</v>
       </c>
       <c r="B79" t="s">
-        <v>95</v>
-      </c>
-      <c r="C79" s="1">
-        <v>446220</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="C79" s="1"/>
       <c r="D79" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="E79" t="s">
-        <v>186</v>
+        <v>160</v>
       </c>
       <c r="F79" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G79" t="s">
         <v>226</v>
@@ -12125,7 +12125,7 @@
         <v>45009</v>
       </c>
       <c r="I79" s="1">
-        <v>822</v>
+        <v>830</v>
       </c>
       <c r="J79" s="1">
         <v>1</v>
@@ -12165,10 +12165,10 @@
         <v>0</v>
       </c>
       <c r="W79" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X79" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y79" s="1">
         <v>0</v>
@@ -12260,7 +12260,7 @@
         <v>212</v>
       </c>
       <c r="F80" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G80" t="s">
         <v>226</v>
@@ -12269,7 +12269,7 @@
         <v>44936</v>
       </c>
       <c r="I80" s="1">
-        <v>825</v>
+        <v>833</v>
       </c>
       <c r="J80" s="1">
         <v>1</v>
@@ -12404,7 +12404,7 @@
         <v>183</v>
       </c>
       <c r="F81" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G81" t="s">
         <v>226</v>
@@ -12413,7 +12413,7 @@
         <v>45009</v>
       </c>
       <c r="I81" s="1">
-        <v>826</v>
+        <v>834</v>
       </c>
       <c r="J81" s="1">
         <v>1</v>
@@ -12548,7 +12548,7 @@
         <v>213</v>
       </c>
       <c r="F82" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G82" t="s">
         <v>226</v>
@@ -12557,7 +12557,7 @@
         <v>45001</v>
       </c>
       <c r="I82" s="1">
-        <v>827</v>
+        <v>835</v>
       </c>
       <c r="J82" s="1">
         <v>1</v>
@@ -12692,7 +12692,7 @@
         <v>210</v>
       </c>
       <c r="F83" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G83" t="s">
         <v>226</v>
@@ -12701,7 +12701,7 @@
         <v>44930</v>
       </c>
       <c r="I83" s="1">
-        <v>829</v>
+        <v>837</v>
       </c>
       <c r="J83" s="1">
         <v>1</v>
@@ -12836,7 +12836,7 @@
         <v>183</v>
       </c>
       <c r="F84" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G84" t="s">
         <v>226</v>
@@ -12845,7 +12845,7 @@
         <v>44930</v>
       </c>
       <c r="I84" s="1">
-        <v>829</v>
+        <v>837</v>
       </c>
       <c r="J84" s="1">
         <v>1</v>
@@ -12971,7 +12971,7 @@
         <v>94</v>
       </c>
       <c r="C85" s="1">
-        <v>13086940</v>
+        <v>3821</v>
       </c>
       <c r="D85" t="s">
         <v>142</v>
@@ -12980,7 +12980,7 @@
         <v>185</v>
       </c>
       <c r="F85" t="s">
-        <v>224</v>
+        <v>160</v>
       </c>
       <c r="G85" t="s">
         <v>226</v>
@@ -12989,13 +12989,13 @@
         <v>44930</v>
       </c>
       <c r="I85" s="1">
-        <v>830</v>
+        <v>838</v>
       </c>
       <c r="J85" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K85" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L85" s="1"/>
       <c r="M85" s="1">
@@ -13056,10 +13056,10 @@
         <v>0</v>
       </c>
       <c r="AF85" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG85" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH85" s="1">
         <v>0</v>
@@ -13115,7 +13115,7 @@
         <v>93</v>
       </c>
       <c r="C86" s="1">
-        <v>3821</v>
+        <v>13086940</v>
       </c>
       <c r="D86" t="s">
         <v>141</v>
@@ -13124,7 +13124,7 @@
         <v>184</v>
       </c>
       <c r="F86" t="s">
-        <v>161</v>
+        <v>224</v>
       </c>
       <c r="G86" t="s">
         <v>226</v>
@@ -13133,13 +13133,13 @@
         <v>44930</v>
       </c>
       <c r="I86" s="1">
-        <v>830</v>
+        <v>838</v>
       </c>
       <c r="J86" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K86" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L86" s="1"/>
       <c r="M86" s="1">
@@ -13200,10 +13200,10 @@
         <v>0</v>
       </c>
       <c r="AF86" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG86" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH86" s="1">
         <v>0</v>
@@ -13268,7 +13268,7 @@
         <v>195</v>
       </c>
       <c r="F87" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G87" t="s">
         <v>226</v>
@@ -13277,7 +13277,7 @@
         <v>44932</v>
       </c>
       <c r="I87" s="1">
-        <v>831</v>
+        <v>839</v>
       </c>
       <c r="J87" s="1">
         <v>1</v>
@@ -13412,7 +13412,7 @@
         <v>183</v>
       </c>
       <c r="F88" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G88" t="s">
         <v>226</v>
@@ -13421,7 +13421,7 @@
         <v>44932</v>
       </c>
       <c r="I88" s="1">
-        <v>831</v>
+        <v>839</v>
       </c>
       <c r="J88" s="1">
         <v>1</v>
@@ -13556,7 +13556,7 @@
         <v>210</v>
       </c>
       <c r="F89" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G89" t="s">
         <v>226</v>
@@ -13565,7 +13565,7 @@
         <v>44931</v>
       </c>
       <c r="I89" s="1">
-        <v>832</v>
+        <v>840</v>
       </c>
       <c r="J89" s="1">
         <v>1</v>
@@ -13688,19 +13688,19 @@
         <v>39</v>
       </c>
       <c r="B90" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="C90" s="1">
-        <v>3345</v>
+        <v>10618</v>
       </c>
       <c r="D90" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E90" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="F90" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G90" t="s">
         <v>226</v>
@@ -13709,7 +13709,7 @@
         <v>44930</v>
       </c>
       <c r="I90" s="1">
-        <v>833</v>
+        <v>841</v>
       </c>
       <c r="J90" s="1">
         <v>1</v>
@@ -13728,10 +13728,10 @@
         <v>1</v>
       </c>
       <c r="P90" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q90" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R90" s="1">
         <v>0</v>
@@ -13791,7 +13791,7 @@
         <v>0</v>
       </c>
       <c r="AK90" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL90" s="1">
         <v>0</v>
@@ -13838,10 +13838,10 @@
         <v>156346345</v>
       </c>
       <c r="D91" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E91" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F91" t="s">
         <v>224</v>
@@ -13853,7 +13853,7 @@
         <v>44930</v>
       </c>
       <c r="I91" s="1">
-        <v>833</v>
+        <v>841</v>
       </c>
       <c r="J91" s="1">
         <v>0</v>
@@ -13976,19 +13976,19 @@
         <v>39</v>
       </c>
       <c r="B92" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C92" s="1">
-        <v>1983</v>
+        <v>88890</v>
       </c>
       <c r="D92" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E92" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F92" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G92" t="s">
         <v>226</v>
@@ -13997,7 +13997,7 @@
         <v>44930</v>
       </c>
       <c r="I92" s="1">
-        <v>833</v>
+        <v>841</v>
       </c>
       <c r="J92" s="1">
         <v>1</v>
@@ -14103,7 +14103,7 @@
         <v>0</v>
       </c>
       <c r="AS92" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT92" s="1">
         <v>0</v>
@@ -14120,19 +14120,19 @@
         <v>39</v>
       </c>
       <c r="B93" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="C93" s="1">
-        <v>88890</v>
+        <v>10836</v>
       </c>
       <c r="D93" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="E93" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="F93" t="s">
-        <v>161</v>
+        <v>224</v>
       </c>
       <c r="G93" t="s">
         <v>226</v>
@@ -14141,13 +14141,13 @@
         <v>44930</v>
       </c>
       <c r="I93" s="1">
-        <v>833</v>
+        <v>841</v>
       </c>
       <c r="J93" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K93" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L93" s="1"/>
       <c r="M93" s="1">
@@ -14178,7 +14178,7 @@
         <v>0</v>
       </c>
       <c r="V93" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W93" s="1">
         <v>0</v>
@@ -14247,7 +14247,7 @@
         <v>0</v>
       </c>
       <c r="AS93" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT93" s="1">
         <v>0</v>
@@ -14264,19 +14264,19 @@
         <v>39</v>
       </c>
       <c r="B94" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="C94" s="1">
-        <v>10618</v>
+        <v>3345</v>
       </c>
       <c r="D94" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="E94" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="F94" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G94" t="s">
         <v>226</v>
@@ -14285,7 +14285,7 @@
         <v>44930</v>
       </c>
       <c r="I94" s="1">
-        <v>833</v>
+        <v>841</v>
       </c>
       <c r="J94" s="1">
         <v>1</v>
@@ -14304,10 +14304,10 @@
         <v>1</v>
       </c>
       <c r="P94" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q94" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R94" s="1">
         <v>0</v>
@@ -14367,7 +14367,7 @@
         <v>0</v>
       </c>
       <c r="AK94" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL94" s="1">
         <v>0</v>
@@ -14408,19 +14408,19 @@
         <v>39</v>
       </c>
       <c r="B95" t="s">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="C95" s="1">
-        <v>10836</v>
+        <v>1983</v>
       </c>
       <c r="D95" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="E95" t="s">
-        <v>183</v>
+        <v>206</v>
       </c>
       <c r="F95" t="s">
-        <v>224</v>
+        <v>160</v>
       </c>
       <c r="G95" t="s">
         <v>226</v>
@@ -14429,13 +14429,13 @@
         <v>44930</v>
       </c>
       <c r="I95" s="1">
-        <v>833</v>
+        <v>841</v>
       </c>
       <c r="J95" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K95" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L95" s="1"/>
       <c r="M95" s="1">
@@ -14466,7 +14466,7 @@
         <v>0</v>
       </c>
       <c r="V95" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W95" s="1">
         <v>0</v>
@@ -14552,19 +14552,19 @@
         <v>40</v>
       </c>
       <c r="B96" t="s">
-        <v>127</v>
+        <v>94</v>
       </c>
       <c r="C96" s="1">
-        <v>2118</v>
+        <v>3821</v>
       </c>
       <c r="D96" t="s">
-        <v>173</v>
+        <v>142</v>
       </c>
       <c r="E96" t="s">
-        <v>214</v>
+        <v>185</v>
       </c>
       <c r="F96" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G96" t="s">
         <v>226</v>
@@ -14573,7 +14573,7 @@
         <v>44935</v>
       </c>
       <c r="I96" s="1">
-        <v>834</v>
+        <v>842</v>
       </c>
       <c r="J96" s="1">
         <v>1</v>
@@ -14640,16 +14640,16 @@
         <v>0</v>
       </c>
       <c r="AF96" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG96" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH96" s="1">
         <v>0</v>
       </c>
       <c r="AI96" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ96" s="1">
         <v>0</v>
@@ -14699,7 +14699,7 @@
         <v>93</v>
       </c>
       <c r="C97" s="1">
-        <v>3821</v>
+        <v>13086940</v>
       </c>
       <c r="D97" t="s">
         <v>141</v>
@@ -14708,7 +14708,7 @@
         <v>184</v>
       </c>
       <c r="F97" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G97" t="s">
         <v>226</v>
@@ -14717,7 +14717,7 @@
         <v>44935</v>
       </c>
       <c r="I97" s="1">
-        <v>834</v>
+        <v>842</v>
       </c>
       <c r="J97" s="1">
         <v>1</v>
@@ -14784,10 +14784,10 @@
         <v>0</v>
       </c>
       <c r="AF97" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG97" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH97" s="1">
         <v>0</v>
@@ -14840,19 +14840,19 @@
         <v>40</v>
       </c>
       <c r="B98" t="s">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="C98" s="1">
-        <v>13086940</v>
+        <v>2118</v>
       </c>
       <c r="D98" t="s">
-        <v>142</v>
+        <v>173</v>
       </c>
       <c r="E98" t="s">
-        <v>185</v>
+        <v>214</v>
       </c>
       <c r="F98" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G98" t="s">
         <v>226</v>
@@ -14861,7 +14861,7 @@
         <v>44935</v>
       </c>
       <c r="I98" s="1">
-        <v>834</v>
+        <v>842</v>
       </c>
       <c r="J98" s="1">
         <v>1</v>
@@ -14937,7 +14937,7 @@
         <v>0</v>
       </c>
       <c r="AI98" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ98" s="1">
         <v>0</v>
@@ -14984,16 +14984,16 @@
         <v>41</v>
       </c>
       <c r="B99" t="s">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="C99" s="1">
-        <v>13086940</v>
+        <v>1615</v>
       </c>
       <c r="D99" t="s">
-        <v>142</v>
+        <v>168</v>
       </c>
       <c r="E99" t="s">
-        <v>185</v>
+        <v>209</v>
       </c>
       <c r="F99" t="s">
         <v>224</v>
@@ -15005,7 +15005,7 @@
         <v>44935</v>
       </c>
       <c r="I99" s="1">
-        <v>835</v>
+        <v>843</v>
       </c>
       <c r="J99" s="1">
         <v>0</v>
@@ -15060,7 +15060,7 @@
         <v>0</v>
       </c>
       <c r="AB99" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC99" s="1">
         <v>0</v>
@@ -15131,7 +15131,7 @@
         <v>93</v>
       </c>
       <c r="C100" s="1">
-        <v>3821</v>
+        <v>13086940</v>
       </c>
       <c r="D100" t="s">
         <v>141</v>
@@ -15140,7 +15140,7 @@
         <v>184</v>
       </c>
       <c r="F100" t="s">
-        <v>161</v>
+        <v>224</v>
       </c>
       <c r="G100" t="s">
         <v>226</v>
@@ -15149,13 +15149,13 @@
         <v>44935</v>
       </c>
       <c r="I100" s="1">
-        <v>835</v>
+        <v>843</v>
       </c>
       <c r="J100" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K100" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L100" s="1"/>
       <c r="M100" s="1">
@@ -15216,10 +15216,10 @@
         <v>0</v>
       </c>
       <c r="AF100" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG100" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH100" s="1">
         <v>0</v>
@@ -15272,19 +15272,19 @@
         <v>41</v>
       </c>
       <c r="B101" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="C101" s="1">
-        <v>1615</v>
+        <v>3821</v>
       </c>
       <c r="D101" t="s">
-        <v>168</v>
+        <v>142</v>
       </c>
       <c r="E101" t="s">
-        <v>209</v>
+        <v>185</v>
       </c>
       <c r="F101" t="s">
-        <v>224</v>
+        <v>160</v>
       </c>
       <c r="G101" t="s">
         <v>226</v>
@@ -15293,13 +15293,13 @@
         <v>44935</v>
       </c>
       <c r="I101" s="1">
-        <v>835</v>
+        <v>843</v>
       </c>
       <c r="J101" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K101" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L101" s="1"/>
       <c r="M101" s="1">
@@ -15348,7 +15348,7 @@
         <v>0</v>
       </c>
       <c r="AB101" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC101" s="1">
         <v>0</v>
@@ -15360,10 +15360,10 @@
         <v>0</v>
       </c>
       <c r="AF101" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG101" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH101" s="1">
         <v>0</v>
@@ -15419,7 +15419,7 @@
         <v>94</v>
       </c>
       <c r="C102" s="1">
-        <v>13086940</v>
+        <v>3821</v>
       </c>
       <c r="D102" t="s">
         <v>142</v>
@@ -15428,7 +15428,7 @@
         <v>185</v>
       </c>
       <c r="F102" t="s">
-        <v>224</v>
+        <v>160</v>
       </c>
       <c r="G102" t="s">
         <v>226</v>
@@ -15437,13 +15437,13 @@
         <v>45001</v>
       </c>
       <c r="I102" s="1">
-        <v>836</v>
+        <v>844</v>
       </c>
       <c r="J102" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K102" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L102" s="1"/>
       <c r="M102" s="1">
@@ -15504,10 +15504,10 @@
         <v>0</v>
       </c>
       <c r="AF102" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG102" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH102" s="1">
         <v>0</v>
@@ -15563,7 +15563,7 @@
         <v>93</v>
       </c>
       <c r="C103" s="1">
-        <v>3821</v>
+        <v>13086940</v>
       </c>
       <c r="D103" t="s">
         <v>141</v>
@@ -15572,7 +15572,7 @@
         <v>184</v>
       </c>
       <c r="F103" t="s">
-        <v>161</v>
+        <v>224</v>
       </c>
       <c r="G103" t="s">
         <v>226</v>
@@ -15581,13 +15581,13 @@
         <v>45001</v>
       </c>
       <c r="I103" s="1">
-        <v>836</v>
+        <v>844</v>
       </c>
       <c r="J103" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K103" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L103" s="1"/>
       <c r="M103" s="1">
@@ -15648,10 +15648,10 @@
         <v>0</v>
       </c>
       <c r="AF103" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG103" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH103" s="1">
         <v>0</v>
@@ -15704,19 +15704,19 @@
         <v>43</v>
       </c>
       <c r="B104" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C104" s="1">
         <v>3821</v>
       </c>
       <c r="D104" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E104" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F104" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G104" t="s">
         <v>226</v>
@@ -15725,7 +15725,7 @@
         <v>44935</v>
       </c>
       <c r="I104" s="1">
-        <v>837</v>
+        <v>845</v>
       </c>
       <c r="J104" s="1">
         <v>1</v>
@@ -15848,16 +15848,16 @@
         <v>43</v>
       </c>
       <c r="B105" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C105" s="1">
         <v>13086940</v>
       </c>
       <c r="D105" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E105" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F105" t="s">
         <v>224</v>
@@ -15869,7 +15869,7 @@
         <v>44935</v>
       </c>
       <c r="I105" s="1">
-        <v>837</v>
+        <v>845</v>
       </c>
       <c r="J105" s="1">
         <v>0</v>
@@ -15992,19 +15992,19 @@
         <v>44</v>
       </c>
       <c r="B106" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C106" s="1">
         <v>446220</v>
       </c>
       <c r="D106" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E106" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F106" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G106" t="s">
         <v>226</v>
@@ -16013,7 +16013,7 @@
         <v>44957</v>
       </c>
       <c r="I106" s="1">
-        <v>839</v>
+        <v>847</v>
       </c>
       <c r="J106" s="1">
         <v>1</v>
@@ -16136,16 +16136,16 @@
         <v>44</v>
       </c>
       <c r="B107" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C107" s="1">
-        <v>10836</v>
+        <v>637578</v>
       </c>
       <c r="D107" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E107" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="F107" t="s">
         <v>224</v>
@@ -16157,7 +16157,7 @@
         <v>44957</v>
       </c>
       <c r="I107" s="1">
-        <v>839</v>
+        <v>847</v>
       </c>
       <c r="J107" s="1">
         <v>0</v>
@@ -16194,7 +16194,7 @@
         <v>0</v>
       </c>
       <c r="V107" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W107" s="1">
         <v>0</v>
@@ -16251,7 +16251,7 @@
         <v>0</v>
       </c>
       <c r="AO107" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP107" s="1">
         <v>0</v>
@@ -16280,16 +16280,16 @@
         <v>44</v>
       </c>
       <c r="B108" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C108" s="1">
-        <v>5486550</v>
+        <v>5462328</v>
       </c>
       <c r="D108" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="E108" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="F108" t="s">
         <v>224</v>
@@ -16301,7 +16301,7 @@
         <v>44957</v>
       </c>
       <c r="I108" s="1">
-        <v>839</v>
+        <v>847</v>
       </c>
       <c r="J108" s="1">
         <v>0</v>
@@ -16401,7 +16401,7 @@
         <v>0</v>
       </c>
       <c r="AQ108" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR108" s="1">
         <v>0</v>
@@ -16424,16 +16424,16 @@
         <v>44</v>
       </c>
       <c r="B109" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="C109" s="1">
-        <v>11564684</v>
+        <v>5486550</v>
       </c>
       <c r="D109" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="E109" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="F109" t="s">
         <v>224</v>
@@ -16445,7 +16445,7 @@
         <v>44957</v>
       </c>
       <c r="I109" s="1">
-        <v>839</v>
+        <v>847</v>
       </c>
       <c r="J109" s="1">
         <v>0</v>
@@ -16527,7 +16527,7 @@
         <v>0</v>
       </c>
       <c r="AK109" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL109" s="1">
         <v>0</v>
@@ -16545,7 +16545,7 @@
         <v>0</v>
       </c>
       <c r="AQ109" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR109" s="1">
         <v>0</v>
@@ -16568,16 +16568,16 @@
         <v>44</v>
       </c>
       <c r="B110" t="s">
-        <v>129</v>
+        <v>96</v>
       </c>
       <c r="C110" s="1">
-        <v>448223</v>
+        <v>644007</v>
       </c>
       <c r="D110" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
       <c r="E110" t="s">
-        <v>216</v>
+        <v>187</v>
       </c>
       <c r="F110" t="s">
         <v>224</v>
@@ -16589,7 +16589,7 @@
         <v>44957</v>
       </c>
       <c r="I110" s="1">
-        <v>839</v>
+        <v>847</v>
       </c>
       <c r="J110" s="1">
         <v>0</v>
@@ -16683,7 +16683,7 @@
         <v>0</v>
       </c>
       <c r="AO110" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP110" s="1">
         <v>0</v>
@@ -16712,19 +16712,19 @@
         <v>44</v>
       </c>
       <c r="B111" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="C111" s="1">
-        <v>119478</v>
+        <v>11564684</v>
       </c>
       <c r="D111" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
       <c r="E111" t="s">
-        <v>192</v>
+        <v>215</v>
       </c>
       <c r="F111" t="s">
-        <v>161</v>
+        <v>224</v>
       </c>
       <c r="G111" t="s">
         <v>226</v>
@@ -16733,13 +16733,13 @@
         <v>44957</v>
       </c>
       <c r="I111" s="1">
-        <v>839</v>
+        <v>847</v>
       </c>
       <c r="J111" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K111" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L111" s="1"/>
       <c r="M111" s="1">
@@ -16877,7 +16877,7 @@
         <v>44957</v>
       </c>
       <c r="I112" s="1">
-        <v>839</v>
+        <v>847</v>
       </c>
       <c r="J112" s="1">
         <v>0</v>
@@ -17000,16 +17000,16 @@
         <v>44</v>
       </c>
       <c r="B113" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C113" s="1">
-        <v>644007</v>
+        <v>104904</v>
       </c>
       <c r="D113" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E113" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F113" t="s">
         <v>224</v>
@@ -17021,7 +17021,7 @@
         <v>44957</v>
       </c>
       <c r="I113" s="1">
-        <v>839</v>
+        <v>847</v>
       </c>
       <c r="J113" s="1">
         <v>0</v>
@@ -17115,7 +17115,7 @@
         <v>0</v>
       </c>
       <c r="AO113" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP113" s="1">
         <v>0</v>
@@ -17144,16 +17144,16 @@
         <v>44</v>
       </c>
       <c r="B114" t="s">
-        <v>97</v>
+        <v>129</v>
       </c>
       <c r="C114" s="1">
-        <v>637578</v>
+        <v>448223</v>
       </c>
       <c r="D114" t="s">
-        <v>145</v>
+        <v>175</v>
       </c>
       <c r="E114" t="s">
-        <v>188</v>
+        <v>216</v>
       </c>
       <c r="F114" t="s">
         <v>224</v>
@@ -17165,7 +17165,7 @@
         <v>44957</v>
       </c>
       <c r="I114" s="1">
-        <v>839</v>
+        <v>847</v>
       </c>
       <c r="J114" s="1">
         <v>0</v>
@@ -17259,7 +17259,7 @@
         <v>0</v>
       </c>
       <c r="AO114" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP114" s="1">
         <v>0</v>
@@ -17288,19 +17288,19 @@
         <v>44</v>
       </c>
       <c r="B115" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C115" s="1">
-        <v>104904</v>
+        <v>119478</v>
       </c>
       <c r="D115" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E115" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F115" t="s">
-        <v>224</v>
+        <v>160</v>
       </c>
       <c r="G115" t="s">
         <v>226</v>
@@ -17309,13 +17309,13 @@
         <v>44957</v>
       </c>
       <c r="I115" s="1">
-        <v>839</v>
+        <v>847</v>
       </c>
       <c r="J115" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K115" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L115" s="1"/>
       <c r="M115" s="1">
@@ -17432,16 +17432,16 @@
         <v>44</v>
       </c>
       <c r="B116" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="C116" s="1">
-        <v>5462328</v>
+        <v>10836</v>
       </c>
       <c r="D116" t="s">
-        <v>163</v>
+        <v>140</v>
       </c>
       <c r="E116" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="F116" t="s">
         <v>224</v>
@@ -17453,7 +17453,7 @@
         <v>44957</v>
       </c>
       <c r="I116" s="1">
-        <v>839</v>
+        <v>847</v>
       </c>
       <c r="J116" s="1">
         <v>0</v>
@@ -17490,7 +17490,7 @@
         <v>0</v>
       </c>
       <c r="V116" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W116" s="1">
         <v>0</v>
@@ -17535,7 +17535,7 @@
         <v>0</v>
       </c>
       <c r="AK116" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL116" s="1">
         <v>0</v>
@@ -17588,7 +17588,7 @@
         <v>210</v>
       </c>
       <c r="F117" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G117" t="s">
         <v>226</v>
@@ -17597,7 +17597,7 @@
         <v>44932</v>
       </c>
       <c r="I117" s="1">
-        <v>840</v>
+        <v>848</v>
       </c>
       <c r="J117" s="1">
         <v>1</v>
@@ -17720,19 +17720,19 @@
         <v>46</v>
       </c>
       <c r="B118" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="C118" s="1">
-        <v>12562546</v>
+        <v>21930924</v>
       </c>
       <c r="D118" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="E118" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="F118" t="s">
-        <v>161</v>
+        <v>224</v>
       </c>
       <c r="G118" t="s">
         <v>226</v>
@@ -17741,13 +17741,13 @@
         <v>44936</v>
       </c>
       <c r="I118" s="1">
-        <v>842</v>
+        <v>850</v>
       </c>
       <c r="J118" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K118" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L118" s="1"/>
       <c r="M118" s="1">
@@ -17864,19 +17864,19 @@
         <v>46</v>
       </c>
       <c r="B119" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C119" s="1">
-        <v>21930924</v>
+        <v>12562546</v>
       </c>
       <c r="D119" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="E119" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="F119" t="s">
-        <v>224</v>
+        <v>160</v>
       </c>
       <c r="G119" t="s">
         <v>226</v>
@@ -17885,13 +17885,13 @@
         <v>44936</v>
       </c>
       <c r="I119" s="1">
-        <v>842</v>
+        <v>850</v>
       </c>
       <c r="J119" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K119" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L119" s="1"/>
       <c r="M119" s="1">
@@ -18008,19 +18008,19 @@
         <v>46</v>
       </c>
       <c r="B120" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C120" s="1">
-        <v>446220</v>
+        <v>119478</v>
       </c>
       <c r="D120" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E120" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F120" t="s">
-        <v>161</v>
+        <v>224</v>
       </c>
       <c r="G120" t="s">
         <v>226</v>
@@ -18029,13 +18029,13 @@
         <v>44936</v>
       </c>
       <c r="I120" s="1">
-        <v>842</v>
+        <v>850</v>
       </c>
       <c r="J120" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K120" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L120" s="1"/>
       <c r="M120" s="1">
@@ -18069,10 +18069,10 @@
         <v>0</v>
       </c>
       <c r="W120" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X120" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y120" s="1">
         <v>0</v>
@@ -18152,19 +18152,19 @@
         <v>46</v>
       </c>
       <c r="B121" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C121" s="1">
-        <v>119478</v>
+        <v>446220</v>
       </c>
       <c r="D121" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E121" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F121" t="s">
-        <v>224</v>
+        <v>160</v>
       </c>
       <c r="G121" t="s">
         <v>226</v>
@@ -18173,13 +18173,13 @@
         <v>44936</v>
       </c>
       <c r="I121" s="1">
-        <v>842</v>
+        <v>850</v>
       </c>
       <c r="J121" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K121" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L121" s="1"/>
       <c r="M121" s="1">
@@ -18213,10 +18213,10 @@
         <v>0</v>
       </c>
       <c r="W121" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X121" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y121" s="1">
         <v>0</v>
@@ -18308,7 +18308,7 @@
         <v>183</v>
       </c>
       <c r="F122" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G122" t="s">
         <v>226</v>
@@ -18317,7 +18317,7 @@
         <v>44930</v>
       </c>
       <c r="I122" s="1">
-        <v>844</v>
+        <v>852</v>
       </c>
       <c r="J122" s="1">
         <v>1</v>
@@ -18452,7 +18452,7 @@
         <v>209</v>
       </c>
       <c r="F123" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G123" t="s">
         <v>226</v>
@@ -18461,7 +18461,7 @@
         <v>44956</v>
       </c>
       <c r="I123" s="1">
-        <v>845</v>
+        <v>853</v>
       </c>
       <c r="J123" s="1">
         <v>1</v>
@@ -18584,19 +18584,19 @@
         <v>49</v>
       </c>
       <c r="B124" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C124" s="1">
-        <v>104904</v>
+        <v>446220</v>
       </c>
       <c r="D124" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E124" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F124" t="s">
-        <v>224</v>
+        <v>160</v>
       </c>
       <c r="G124" t="s">
         <v>226</v>
@@ -18605,13 +18605,13 @@
         <v>45002</v>
       </c>
       <c r="I124" s="1">
-        <v>846</v>
+        <v>854</v>
       </c>
       <c r="J124" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K124" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L124" s="1"/>
       <c r="M124" s="1">
@@ -18645,10 +18645,10 @@
         <v>0</v>
       </c>
       <c r="W124" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X124" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y124" s="1">
         <v>0</v>
@@ -18728,16 +18728,16 @@
         <v>49</v>
       </c>
       <c r="B125" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="C125" s="1">
-        <v>448223</v>
+        <v>104904</v>
       </c>
       <c r="D125" t="s">
-        <v>175</v>
+        <v>149</v>
       </c>
       <c r="E125" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="F125" t="s">
         <v>224</v>
@@ -18749,7 +18749,7 @@
         <v>45002</v>
       </c>
       <c r="I125" s="1">
-        <v>846</v>
+        <v>854</v>
       </c>
       <c r="J125" s="1">
         <v>0</v>
@@ -18872,16 +18872,16 @@
         <v>49</v>
       </c>
       <c r="B126" t="s">
-        <v>97</v>
+        <v>129</v>
       </c>
       <c r="C126" s="1">
-        <v>637578</v>
+        <v>448223</v>
       </c>
       <c r="D126" t="s">
-        <v>145</v>
+        <v>175</v>
       </c>
       <c r="E126" t="s">
-        <v>188</v>
+        <v>216</v>
       </c>
       <c r="F126" t="s">
         <v>224</v>
@@ -18893,7 +18893,7 @@
         <v>45002</v>
       </c>
       <c r="I126" s="1">
-        <v>846</v>
+        <v>854</v>
       </c>
       <c r="J126" s="1">
         <v>0</v>
@@ -18987,7 +18987,7 @@
         <v>0</v>
       </c>
       <c r="AO126" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP126" s="1">
         <v>0</v>
@@ -19016,16 +19016,16 @@
         <v>49</v>
       </c>
       <c r="B127" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C127" s="1">
-        <v>119478</v>
+        <v>637578</v>
       </c>
       <c r="D127" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="E127" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="F127" t="s">
         <v>224</v>
@@ -19037,7 +19037,7 @@
         <v>45002</v>
       </c>
       <c r="I127" s="1">
-        <v>846</v>
+        <v>854</v>
       </c>
       <c r="J127" s="1">
         <v>0</v>
@@ -19131,7 +19131,7 @@
         <v>0</v>
       </c>
       <c r="AO127" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP127" s="1">
         <v>0</v>
@@ -19160,19 +19160,19 @@
         <v>49</v>
       </c>
       <c r="B128" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C128" s="1">
-        <v>446220</v>
+        <v>119478</v>
       </c>
       <c r="D128" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E128" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F128" t="s">
-        <v>161</v>
+        <v>224</v>
       </c>
       <c r="G128" t="s">
         <v>226</v>
@@ -19181,13 +19181,13 @@
         <v>45002</v>
       </c>
       <c r="I128" s="1">
-        <v>846</v>
+        <v>854</v>
       </c>
       <c r="J128" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K128" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L128" s="1"/>
       <c r="M128" s="1">
@@ -19221,10 +19221,10 @@
         <v>0</v>
       </c>
       <c r="W128" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X128" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y128" s="1">
         <v>0</v>
@@ -19304,19 +19304,19 @@
         <v>50</v>
       </c>
       <c r="B129" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C129" s="1">
-        <v>119478</v>
+        <v>446220</v>
       </c>
       <c r="D129" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E129" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F129" t="s">
-        <v>224</v>
+        <v>160</v>
       </c>
       <c r="G129" t="s">
         <v>226</v>
@@ -19325,13 +19325,13 @@
         <v>45006</v>
       </c>
       <c r="I129" s="1">
-        <v>847</v>
+        <v>855</v>
       </c>
       <c r="J129" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K129" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L129" s="1"/>
       <c r="M129" s="1">
@@ -19365,10 +19365,10 @@
         <v>0</v>
       </c>
       <c r="W129" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X129" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y129" s="1">
         <v>0</v>
@@ -19451,7 +19451,7 @@
         <v>97</v>
       </c>
       <c r="C130" s="1">
-        <v>637578</v>
+        <v>119478</v>
       </c>
       <c r="D130" t="s">
         <v>145</v>
@@ -19469,7 +19469,7 @@
         <v>45006</v>
       </c>
       <c r="I130" s="1">
-        <v>847</v>
+        <v>855</v>
       </c>
       <c r="J130" s="1">
         <v>0</v>
@@ -19563,7 +19563,7 @@
         <v>0</v>
       </c>
       <c r="AO130" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP130" s="1">
         <v>0</v>
@@ -19595,7 +19595,7 @@
         <v>95</v>
       </c>
       <c r="C131" s="1">
-        <v>446220</v>
+        <v>637578</v>
       </c>
       <c r="D131" t="s">
         <v>143</v>
@@ -19604,7 +19604,7 @@
         <v>186</v>
       </c>
       <c r="F131" t="s">
-        <v>161</v>
+        <v>224</v>
       </c>
       <c r="G131" t="s">
         <v>226</v>
@@ -19613,13 +19613,13 @@
         <v>45006</v>
       </c>
       <c r="I131" s="1">
-        <v>847</v>
+        <v>855</v>
       </c>
       <c r="J131" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K131" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L131" s="1"/>
       <c r="M131" s="1">
@@ -19653,10 +19653,10 @@
         <v>0</v>
       </c>
       <c r="W131" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X131" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y131" s="1">
         <v>0</v>
@@ -19707,7 +19707,7 @@
         <v>0</v>
       </c>
       <c r="AO131" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP131" s="1">
         <v>0</v>
@@ -19736,19 +19736,19 @@
         <v>51</v>
       </c>
       <c r="B132" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="C132" s="1">
-        <v>3345</v>
+        <v>156346345</v>
       </c>
       <c r="D132" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="E132" t="s">
-        <v>197</v>
+        <v>160</v>
       </c>
       <c r="F132" t="s">
-        <v>161</v>
+        <v>224</v>
       </c>
       <c r="G132" t="s">
         <v>226</v>
@@ -19757,13 +19757,13 @@
         <v>44936</v>
       </c>
       <c r="I132" s="1">
-        <v>848</v>
+        <v>856</v>
       </c>
       <c r="J132" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K132" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L132" s="1"/>
       <c r="M132" s="1">
@@ -19776,10 +19776,10 @@
         <v>1</v>
       </c>
       <c r="P132" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q132" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R132" s="1">
         <v>0</v>
@@ -19839,7 +19839,7 @@
         <v>0</v>
       </c>
       <c r="AK132" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL132" s="1">
         <v>0</v>
@@ -19863,7 +19863,7 @@
         <v>0</v>
       </c>
       <c r="AS132" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT132" s="1">
         <v>0</v>
@@ -19880,16 +19880,16 @@
         <v>51</v>
       </c>
       <c r="B133" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="C133" s="1">
-        <v>156346345</v>
+        <v>88890</v>
       </c>
       <c r="D133" t="s">
         <v>161</v>
       </c>
       <c r="E133" t="s">
-        <v>161</v>
+        <v>202</v>
       </c>
       <c r="F133" t="s">
         <v>224</v>
@@ -19901,7 +19901,7 @@
         <v>44936</v>
       </c>
       <c r="I133" s="1">
-        <v>848</v>
+        <v>856</v>
       </c>
       <c r="J133" s="1">
         <v>0</v>
@@ -20024,19 +20024,19 @@
         <v>51</v>
       </c>
       <c r="B134" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="C134" s="1">
-        <v>1983</v>
+        <v>3345</v>
       </c>
       <c r="D134" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="E134" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="F134" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G134" t="s">
         <v>226</v>
@@ -20045,7 +20045,7 @@
         <v>44936</v>
       </c>
       <c r="I134" s="1">
-        <v>848</v>
+        <v>856</v>
       </c>
       <c r="J134" s="1">
         <v>1</v>
@@ -20064,10 +20064,10 @@
         <v>1</v>
       </c>
       <c r="P134" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q134" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R134" s="1">
         <v>0</v>
@@ -20127,7 +20127,7 @@
         <v>0</v>
       </c>
       <c r="AK134" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL134" s="1">
         <v>0</v>
@@ -20168,19 +20168,19 @@
         <v>51</v>
       </c>
       <c r="B135" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C135" s="1">
-        <v>88890</v>
+        <v>1983</v>
       </c>
       <c r="D135" t="s">
+        <v>165</v>
+      </c>
+      <c r="E135" t="s">
+        <v>206</v>
+      </c>
+      <c r="F135" t="s">
         <v>160</v>
-      </c>
-      <c r="E135" t="s">
-        <v>202</v>
-      </c>
-      <c r="F135" t="s">
-        <v>224</v>
       </c>
       <c r="G135" t="s">
         <v>226</v>
@@ -20189,13 +20189,13 @@
         <v>44936</v>
       </c>
       <c r="I135" s="1">
-        <v>848</v>
+        <v>856</v>
       </c>
       <c r="J135" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K135" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L135" s="1"/>
       <c r="M135" s="1">
@@ -20295,7 +20295,7 @@
         <v>0</v>
       </c>
       <c r="AS135" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT135" s="1">
         <v>0</v>
@@ -20312,19 +20312,19 @@
         <v>52</v>
       </c>
       <c r="B136" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="C136" s="1">
-        <v>76632</v>
+        <v>98527</v>
       </c>
       <c r="D136" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="E136" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="F136" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G136" t="s">
         <v>226</v>
@@ -20333,7 +20333,7 @@
         <v>44930</v>
       </c>
       <c r="I136" s="1">
-        <v>849</v>
+        <v>857</v>
       </c>
       <c r="J136" s="1">
         <v>1</v>
@@ -20456,19 +20456,19 @@
         <v>52</v>
       </c>
       <c r="B137" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C137" s="1">
-        <v>98527</v>
+        <v>6089</v>
       </c>
       <c r="D137" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="E137" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="F137" t="s">
-        <v>161</v>
+        <v>224</v>
       </c>
       <c r="G137" t="s">
         <v>226</v>
@@ -20477,13 +20477,13 @@
         <v>44930</v>
       </c>
       <c r="I137" s="1">
-        <v>849</v>
+        <v>857</v>
       </c>
       <c r="J137" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K137" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L137" s="1"/>
       <c r="M137" s="1">
@@ -20600,19 +20600,19 @@
         <v>52</v>
       </c>
       <c r="B138" t="s">
-        <v>103</v>
+        <v>131</v>
       </c>
       <c r="C138" s="1">
-        <v>6089</v>
+        <v>76632</v>
       </c>
       <c r="D138" t="s">
-        <v>151</v>
+        <v>177</v>
       </c>
       <c r="E138" t="s">
-        <v>194</v>
+        <v>218</v>
       </c>
       <c r="F138" t="s">
-        <v>224</v>
+        <v>160</v>
       </c>
       <c r="G138" t="s">
         <v>226</v>
@@ -20621,13 +20621,13 @@
         <v>44930</v>
       </c>
       <c r="I138" s="1">
-        <v>849</v>
+        <v>857</v>
       </c>
       <c r="J138" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K138" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L138" s="1"/>
       <c r="M138" s="1">
@@ -20744,19 +20744,19 @@
         <v>53</v>
       </c>
       <c r="B139" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C139" s="1">
-        <v>1983</v>
+        <v>88890</v>
       </c>
       <c r="D139" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E139" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F139" t="s">
-        <v>161</v>
+        <v>224</v>
       </c>
       <c r="G139" t="s">
         <v>226</v>
@@ -20765,13 +20765,13 @@
         <v>44936</v>
       </c>
       <c r="I139" s="1">
-        <v>850</v>
+        <v>858</v>
       </c>
       <c r="J139" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K139" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L139" s="1"/>
       <c r="M139" s="1">
@@ -20871,7 +20871,7 @@
         <v>0</v>
       </c>
       <c r="AS139" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT139" s="1">
         <v>0</v>
@@ -20888,19 +20888,19 @@
         <v>53</v>
       </c>
       <c r="B140" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="C140" s="1">
-        <v>3345</v>
+        <v>1983</v>
       </c>
       <c r="D140" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="E140" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="F140" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G140" t="s">
         <v>226</v>
@@ -20909,7 +20909,7 @@
         <v>44936</v>
       </c>
       <c r="I140" s="1">
-        <v>850</v>
+        <v>858</v>
       </c>
       <c r="J140" s="1">
         <v>1</v>
@@ -20928,10 +20928,10 @@
         <v>1</v>
       </c>
       <c r="P140" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q140" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R140" s="1">
         <v>0</v>
@@ -20991,7 +20991,7 @@
         <v>0</v>
       </c>
       <c r="AK140" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL140" s="1">
         <v>0</v>
@@ -21032,19 +21032,19 @@
         <v>53</v>
       </c>
       <c r="B141" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C141" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D141" t="s">
+        <v>155</v>
+      </c>
+      <c r="E141" t="s">
+        <v>197</v>
+      </c>
+      <c r="F141" t="s">
         <v>160</v>
-      </c>
-      <c r="E141" t="s">
-        <v>202</v>
-      </c>
-      <c r="F141" t="s">
-        <v>224</v>
       </c>
       <c r="G141" t="s">
         <v>226</v>
@@ -21053,13 +21053,13 @@
         <v>44936</v>
       </c>
       <c r="I141" s="1">
-        <v>850</v>
+        <v>858</v>
       </c>
       <c r="J141" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K141" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L141" s="1"/>
       <c r="M141" s="1">
@@ -21072,10 +21072,10 @@
         <v>1</v>
       </c>
       <c r="P141" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q141" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R141" s="1">
         <v>0</v>
@@ -21135,7 +21135,7 @@
         <v>0</v>
       </c>
       <c r="AK141" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL141" s="1">
         <v>0</v>
@@ -21159,7 +21159,7 @@
         <v>0</v>
       </c>
       <c r="AS141" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT141" s="1">
         <v>0</v>
@@ -21188,7 +21188,7 @@
         <v>209</v>
       </c>
       <c r="F142" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G142" t="s">
         <v>226</v>
@@ -21197,7 +21197,7 @@
         <v>44932</v>
       </c>
       <c r="I142" s="1">
-        <v>852</v>
+        <v>860</v>
       </c>
       <c r="J142" s="1">
         <v>1</v>
@@ -21341,7 +21341,7 @@
         <v>44936</v>
       </c>
       <c r="I143" s="1">
-        <v>853</v>
+        <v>861</v>
       </c>
       <c r="J143" s="1">
         <v>0</v>
@@ -21476,7 +21476,7 @@
         <v>209</v>
       </c>
       <c r="F144" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G144" t="s">
         <v>226</v>
@@ -21485,7 +21485,7 @@
         <v>44936</v>
       </c>
       <c r="I144" s="1">
-        <v>853</v>
+        <v>861</v>
       </c>
       <c r="J144" s="1">
         <v>1</v>
@@ -21620,7 +21620,7 @@
         <v>209</v>
       </c>
       <c r="F145" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G145" t="s">
         <v>226</v>
@@ -21629,7 +21629,7 @@
         <v>44957</v>
       </c>
       <c r="I145" s="1">
-        <v>856</v>
+        <v>864</v>
       </c>
       <c r="J145" s="1">
         <v>1</v>
@@ -21764,7 +21764,7 @@
         <v>209</v>
       </c>
       <c r="F146" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G146" t="s">
         <v>226</v>
@@ -21773,7 +21773,7 @@
         <v>45005</v>
       </c>
       <c r="I146" s="1">
-        <v>857</v>
+        <v>865</v>
       </c>
       <c r="J146" s="1">
         <v>1</v>
@@ -21896,16 +21896,16 @@
         <v>57</v>
       </c>
       <c r="B147" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C147" s="1">
         <v>3821</v>
       </c>
       <c r="D147" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E147" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F147" t="s">
         <v>224</v>
@@ -21917,7 +21917,7 @@
         <v>45005</v>
       </c>
       <c r="I147" s="1">
-        <v>857</v>
+        <v>865</v>
       </c>
       <c r="J147" s="1">
         <v>0</v>
@@ -22052,7 +22052,7 @@
         <v>183</v>
       </c>
       <c r="F148" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G148" t="s">
         <v>226</v>
@@ -22061,7 +22061,7 @@
         <v>45007</v>
       </c>
       <c r="I148" s="1">
-        <v>858</v>
+        <v>866</v>
       </c>
       <c r="J148" s="1">
         <v>1</v>
@@ -22184,19 +22184,19 @@
         <v>59</v>
       </c>
       <c r="B149" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="C149" s="1">
-        <v>1615</v>
+        <v>3821</v>
       </c>
       <c r="D149" t="s">
-        <v>168</v>
+        <v>142</v>
       </c>
       <c r="E149" t="s">
-        <v>209</v>
+        <v>185</v>
       </c>
       <c r="F149" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G149" t="s">
         <v>226</v>
@@ -22205,7 +22205,7 @@
         <v>45005</v>
       </c>
       <c r="I149" s="1">
-        <v>859</v>
+        <v>867</v>
       </c>
       <c r="J149" s="1">
         <v>1</v>
@@ -22260,7 +22260,7 @@
         <v>0</v>
       </c>
       <c r="AB149" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC149" s="1">
         <v>0</v>
@@ -22272,10 +22272,10 @@
         <v>0</v>
       </c>
       <c r="AF149" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG149" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH149" s="1">
         <v>0</v>
@@ -22328,19 +22328,19 @@
         <v>59</v>
       </c>
       <c r="B150" t="s">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="C150" s="1">
-        <v>446220</v>
+        <v>1615</v>
       </c>
       <c r="D150" t="s">
-        <v>143</v>
+        <v>168</v>
       </c>
       <c r="E150" t="s">
-        <v>186</v>
+        <v>209</v>
       </c>
       <c r="F150" t="s">
-        <v>224</v>
+        <v>160</v>
       </c>
       <c r="G150" t="s">
         <v>226</v>
@@ -22349,13 +22349,13 @@
         <v>45005</v>
       </c>
       <c r="I150" s="1">
-        <v>859</v>
+        <v>867</v>
       </c>
       <c r="J150" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K150" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L150" s="1"/>
       <c r="M150" s="1">
@@ -22392,7 +22392,7 @@
         <v>0</v>
       </c>
       <c r="X150" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y150" s="1">
         <v>0</v>
@@ -22404,7 +22404,7 @@
         <v>0</v>
       </c>
       <c r="AB150" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC150" s="1">
         <v>0</v>
@@ -22472,19 +22472,19 @@
         <v>59</v>
       </c>
       <c r="B151" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C151" s="1">
-        <v>3821</v>
+        <v>10836</v>
       </c>
       <c r="D151" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E151" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F151" t="s">
-        <v>161</v>
+        <v>224</v>
       </c>
       <c r="G151" t="s">
         <v>226</v>
@@ -22493,13 +22493,13 @@
         <v>45005</v>
       </c>
       <c r="I151" s="1">
-        <v>859</v>
+        <v>867</v>
       </c>
       <c r="J151" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K151" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L151" s="1"/>
       <c r="M151" s="1">
@@ -22530,7 +22530,7 @@
         <v>0</v>
       </c>
       <c r="V151" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W151" s="1">
         <v>0</v>
@@ -22560,10 +22560,10 @@
         <v>0</v>
       </c>
       <c r="AF151" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG151" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH151" s="1">
         <v>0</v>
@@ -22616,16 +22616,16 @@
         <v>59</v>
       </c>
       <c r="B152" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="C152" s="1">
-        <v>10836</v>
+        <v>446220</v>
       </c>
       <c r="D152" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="E152" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="F152" t="s">
         <v>224</v>
@@ -22637,7 +22637,7 @@
         <v>45005</v>
       </c>
       <c r="I152" s="1">
-        <v>859</v>
+        <v>867</v>
       </c>
       <c r="J152" s="1">
         <v>0</v>
@@ -22674,13 +22674,13 @@
         <v>0</v>
       </c>
       <c r="V152" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W152" s="1">
         <v>0</v>
       </c>
       <c r="X152" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y152" s="1">
         <v>0</v>
@@ -22772,7 +22772,7 @@
         <v>219</v>
       </c>
       <c r="F153" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G153" t="s">
         <v>226</v>
@@ -22781,7 +22781,7 @@
         <v>44957</v>
       </c>
       <c r="I153" s="1">
-        <v>860</v>
+        <v>868</v>
       </c>
       <c r="J153" s="1">
         <v>1</v>
@@ -22907,7 +22907,7 @@
         <v>95</v>
       </c>
       <c r="C154" s="1">
-        <v>446220</v>
+        <v>637578</v>
       </c>
       <c r="D154" t="s">
         <v>143</v>
@@ -22916,7 +22916,7 @@
         <v>186</v>
       </c>
       <c r="F154" t="s">
-        <v>161</v>
+        <v>224</v>
       </c>
       <c r="G154" t="s">
         <v>226</v>
@@ -22925,13 +22925,13 @@
         <v>45002</v>
       </c>
       <c r="I154" s="1">
-        <v>861</v>
+        <v>869</v>
       </c>
       <c r="J154" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K154" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L154" s="1"/>
       <c r="M154" s="1">
@@ -22965,10 +22965,10 @@
         <v>0</v>
       </c>
       <c r="W154" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X154" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y154" s="1">
         <v>0</v>
@@ -23019,7 +23019,7 @@
         <v>0</v>
       </c>
       <c r="AO154" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP154" s="1">
         <v>0</v>
@@ -23048,19 +23048,19 @@
         <v>61</v>
       </c>
       <c r="B155" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C155" s="1">
-        <v>644007</v>
+        <v>446220</v>
       </c>
       <c r="D155" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E155" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F155" t="s">
-        <v>224</v>
+        <v>160</v>
       </c>
       <c r="G155" t="s">
         <v>226</v>
@@ -23069,13 +23069,13 @@
         <v>45002</v>
       </c>
       <c r="I155" s="1">
-        <v>861</v>
+        <v>869</v>
       </c>
       <c r="J155" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K155" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L155" s="1"/>
       <c r="M155" s="1">
@@ -23109,10 +23109,10 @@
         <v>0</v>
       </c>
       <c r="W155" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X155" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y155" s="1">
         <v>0</v>
@@ -23163,7 +23163,7 @@
         <v>0</v>
       </c>
       <c r="AO155" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP155" s="1">
         <v>0</v>
@@ -23192,16 +23192,16 @@
         <v>61</v>
       </c>
       <c r="B156" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C156" s="1">
         <v>119478</v>
       </c>
       <c r="D156" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E156" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F156" t="s">
         <v>224</v>
@@ -23213,7 +23213,7 @@
         <v>45002</v>
       </c>
       <c r="I156" s="1">
-        <v>861</v>
+        <v>869</v>
       </c>
       <c r="J156" s="1">
         <v>0</v>
@@ -23336,16 +23336,16 @@
         <v>61</v>
       </c>
       <c r="B157" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C157" s="1">
-        <v>637578</v>
+        <v>644007</v>
       </c>
       <c r="D157" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E157" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F157" t="s">
         <v>224</v>
@@ -23357,7 +23357,7 @@
         <v>45002</v>
       </c>
       <c r="I157" s="1">
-        <v>861</v>
+        <v>869</v>
       </c>
       <c r="J157" s="1">
         <v>0</v>
@@ -23480,16 +23480,16 @@
         <v>62</v>
       </c>
       <c r="B158" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C158" s="1">
         <v>119478</v>
       </c>
       <c r="D158" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E158" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F158" t="s">
         <v>224</v>
@@ -23501,7 +23501,7 @@
         <v>44957</v>
       </c>
       <c r="I158" s="1">
-        <v>862</v>
+        <v>870</v>
       </c>
       <c r="J158" s="1">
         <v>0</v>
@@ -23624,19 +23624,19 @@
         <v>62</v>
       </c>
       <c r="B159" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C159" s="1">
-        <v>3821</v>
+        <v>446220</v>
       </c>
       <c r="D159" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="E159" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="F159" t="s">
-        <v>224</v>
+        <v>160</v>
       </c>
       <c r="G159" t="s">
         <v>226</v>
@@ -23645,13 +23645,13 @@
         <v>44957</v>
       </c>
       <c r="I159" s="1">
-        <v>862</v>
+        <v>870</v>
       </c>
       <c r="J159" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K159" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L159" s="1"/>
       <c r="M159" s="1">
@@ -23685,10 +23685,10 @@
         <v>0</v>
       </c>
       <c r="W159" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X159" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y159" s="1">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="AF159" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG159" s="1">
         <v>0</v>
@@ -23768,19 +23768,19 @@
         <v>62</v>
       </c>
       <c r="B160" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C160" s="1">
-        <v>446220</v>
+        <v>3821</v>
       </c>
       <c r="D160" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E160" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F160" t="s">
-        <v>161</v>
+        <v>224</v>
       </c>
       <c r="G160" t="s">
         <v>226</v>
@@ -23789,13 +23789,13 @@
         <v>44957</v>
       </c>
       <c r="I160" s="1">
-        <v>862</v>
+        <v>870</v>
       </c>
       <c r="J160" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K160" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L160" s="1"/>
       <c r="M160" s="1">
@@ -23829,10 +23829,10 @@
         <v>0</v>
       </c>
       <c r="W160" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X160" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y160" s="1">
         <v>0</v>
@@ -23856,7 +23856,7 @@
         <v>0</v>
       </c>
       <c r="AF160" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG160" s="1">
         <v>0</v>
@@ -23912,19 +23912,19 @@
         <v>63</v>
       </c>
       <c r="B161" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="C161" s="1">
-        <v>3345</v>
+        <v>156346345</v>
       </c>
       <c r="D161" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>197</v>
+        <v>160</v>
       </c>
       <c r="F161" t="s">
-        <v>161</v>
+        <v>224</v>
       </c>
       <c r="G161" t="s">
         <v>226</v>
@@ -23933,13 +23933,13 @@
         <v>45008</v>
       </c>
       <c r="I161" s="1">
-        <v>863</v>
+        <v>871</v>
       </c>
       <c r="J161" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K161" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L161" s="1"/>
       <c r="M161" s="1">
@@ -23952,10 +23952,10 @@
         <v>1</v>
       </c>
       <c r="P161" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q161" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R161" s="1">
         <v>0</v>
@@ -24015,7 +24015,7 @@
         <v>0</v>
       </c>
       <c r="AK161" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL161" s="1">
         <v>0</v>
@@ -24039,7 +24039,7 @@
         <v>0</v>
       </c>
       <c r="AS161" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT161" s="1">
         <v>0</v>
@@ -24056,19 +24056,19 @@
         <v>63</v>
       </c>
       <c r="B162" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="C162" s="1">
-        <v>88890</v>
+        <v>10836</v>
       </c>
       <c r="D162" t="s">
+        <v>140</v>
+      </c>
+      <c r="E162" t="s">
+        <v>183</v>
+      </c>
+      <c r="F162" t="s">
         <v>160</v>
-      </c>
-      <c r="E162" t="s">
-        <v>202</v>
-      </c>
-      <c r="F162" t="s">
-        <v>224</v>
       </c>
       <c r="G162" t="s">
         <v>226</v>
@@ -24077,13 +24077,13 @@
         <v>45008</v>
       </c>
       <c r="I162" s="1">
-        <v>863</v>
+        <v>871</v>
       </c>
       <c r="J162" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K162" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L162" s="1"/>
       <c r="M162" s="1">
@@ -24111,10 +24111,10 @@
         <v>0</v>
       </c>
       <c r="U162" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V162" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W162" s="1">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="AS162" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT162" s="1">
         <v>0</v>
@@ -24200,19 +24200,19 @@
         <v>63</v>
       </c>
       <c r="B163" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="C163" s="1">
-        <v>10836</v>
+        <v>88890</v>
       </c>
       <c r="D163" t="s">
-        <v>140</v>
+        <v>161</v>
       </c>
       <c r="E163" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="F163" t="s">
-        <v>161</v>
+        <v>224</v>
       </c>
       <c r="G163" t="s">
         <v>226</v>
@@ -24221,13 +24221,13 @@
         <v>45008</v>
       </c>
       <c r="I163" s="1">
-        <v>863</v>
+        <v>871</v>
       </c>
       <c r="J163" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K163" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L163" s="1"/>
       <c r="M163" s="1">
@@ -24255,10 +24255,10 @@
         <v>0</v>
       </c>
       <c r="U163" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V163" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W163" s="1">
         <v>0</v>
@@ -24327,7 +24327,7 @@
         <v>0</v>
       </c>
       <c r="AS163" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT163" s="1">
         <v>0</v>
@@ -24344,19 +24344,19 @@
         <v>63</v>
       </c>
       <c r="B164" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C164" s="1">
-        <v>156346345</v>
+        <v>1983</v>
       </c>
       <c r="D164" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E164" t="s">
-        <v>161</v>
+        <v>206</v>
       </c>
       <c r="F164" t="s">
-        <v>224</v>
+        <v>160</v>
       </c>
       <c r="G164" t="s">
         <v>226</v>
@@ -24365,13 +24365,13 @@
         <v>45008</v>
       </c>
       <c r="I164" s="1">
-        <v>863</v>
+        <v>871</v>
       </c>
       <c r="J164" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K164" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L164" s="1"/>
       <c r="M164" s="1">
@@ -24471,7 +24471,7 @@
         <v>0</v>
       </c>
       <c r="AS164" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT164" s="1">
         <v>0</v>
@@ -24488,19 +24488,19 @@
         <v>63</v>
       </c>
       <c r="B165" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="C165" s="1">
-        <v>1983</v>
+        <v>3345</v>
       </c>
       <c r="D165" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="E165" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="F165" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G165" t="s">
         <v>226</v>
@@ -24509,7 +24509,7 @@
         <v>45008</v>
       </c>
       <c r="I165" s="1">
-        <v>863</v>
+        <v>871</v>
       </c>
       <c r="J165" s="1">
         <v>1</v>
@@ -24528,10 +24528,10 @@
         <v>1</v>
       </c>
       <c r="P165" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q165" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R165" s="1">
         <v>0</v>
@@ -24591,7 +24591,7 @@
         <v>0</v>
       </c>
       <c r="AK165" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL165" s="1">
         <v>0</v>
@@ -24644,7 +24644,7 @@
         <v>183</v>
       </c>
       <c r="F166" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G166" t="s">
         <v>226</v>
@@ -24653,7 +24653,7 @@
         <v>45009</v>
       </c>
       <c r="I166" s="1">
-        <v>902</v>
+        <v>910</v>
       </c>
       <c r="J166" s="1">
         <v>1</v>
@@ -24788,7 +24788,7 @@
         <v>183</v>
       </c>
       <c r="F167" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G167" t="s">
         <v>226</v>
@@ -24797,7 +24797,7 @@
         <v>45006</v>
       </c>
       <c r="I167" s="1">
-        <v>903</v>
+        <v>911</v>
       </c>
       <c r="J167" s="1">
         <v>1</v>
@@ -24932,7 +24932,7 @@
         <v>183</v>
       </c>
       <c r="F168" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G168" t="s">
         <v>226</v>
@@ -24941,7 +24941,7 @@
         <v>45006</v>
       </c>
       <c r="I168" s="1">
-        <v>904</v>
+        <v>912</v>
       </c>
       <c r="J168" s="1">
         <v>1</v>
@@ -25064,19 +25064,19 @@
         <v>67</v>
       </c>
       <c r="B169" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="C169" s="1">
-        <v>3345</v>
+        <v>1983</v>
       </c>
       <c r="D169" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="E169" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="F169" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G169" t="s">
         <v>226</v>
@@ -25085,7 +25085,7 @@
         <v>45008</v>
       </c>
       <c r="I169" s="1">
-        <v>905</v>
+        <v>913</v>
       </c>
       <c r="J169" s="1">
         <v>1</v>
@@ -25104,10 +25104,10 @@
         <v>1</v>
       </c>
       <c r="P169" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q169" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R169" s="1">
         <v>0</v>
@@ -25167,7 +25167,7 @@
         <v>0</v>
       </c>
       <c r="AK169" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL169" s="1">
         <v>0</v>
@@ -25208,19 +25208,19 @@
         <v>67</v>
       </c>
       <c r="B170" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C170" s="1">
-        <v>1983</v>
+        <v>88890</v>
       </c>
       <c r="D170" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E170" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F170" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G170" t="s">
         <v>226</v>
@@ -25229,7 +25229,7 @@
         <v>45008</v>
       </c>
       <c r="I170" s="1">
-        <v>905</v>
+        <v>913</v>
       </c>
       <c r="J170" s="1">
         <v>1</v>
@@ -25335,7 +25335,7 @@
         <v>0</v>
       </c>
       <c r="AS170" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT170" s="1">
         <v>0</v>
@@ -25352,19 +25352,19 @@
         <v>67</v>
       </c>
       <c r="B171" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C171" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D171" t="s">
+        <v>155</v>
+      </c>
+      <c r="E171" t="s">
+        <v>197</v>
+      </c>
+      <c r="F171" t="s">
         <v>160</v>
-      </c>
-      <c r="E171" t="s">
-        <v>202</v>
-      </c>
-      <c r="F171" t="s">
-        <v>161</v>
       </c>
       <c r="G171" t="s">
         <v>226</v>
@@ -25373,7 +25373,7 @@
         <v>45008</v>
       </c>
       <c r="I171" s="1">
-        <v>905</v>
+        <v>913</v>
       </c>
       <c r="J171" s="1">
         <v>1</v>
@@ -25392,10 +25392,10 @@
         <v>1</v>
       </c>
       <c r="P171" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q171" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R171" s="1">
         <v>0</v>
@@ -25455,7 +25455,7 @@
         <v>0</v>
       </c>
       <c r="AK171" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL171" s="1">
         <v>0</v>
@@ -25479,7 +25479,7 @@
         <v>0</v>
       </c>
       <c r="AS171" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT171" s="1">
         <v>0</v>
@@ -25496,19 +25496,19 @@
         <v>68</v>
       </c>
       <c r="B172" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="C172" s="1">
-        <v>1983</v>
+        <v>3345</v>
       </c>
       <c r="D172" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="E172" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="F172" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G172" t="s">
         <v>226</v>
@@ -25517,7 +25517,7 @@
         <v>45008</v>
       </c>
       <c r="I172" s="1">
-        <v>906</v>
+        <v>914</v>
       </c>
       <c r="J172" s="1">
         <v>1</v>
@@ -25536,10 +25536,10 @@
         <v>1</v>
       </c>
       <c r="P172" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q172" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R172" s="1">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="AK172" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL172" s="1">
         <v>0</v>
@@ -25640,19 +25640,19 @@
         <v>68</v>
       </c>
       <c r="B173" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C173" s="1">
-        <v>88890</v>
+        <v>1983</v>
       </c>
       <c r="D173" t="s">
+        <v>165</v>
+      </c>
+      <c r="E173" t="s">
+        <v>206</v>
+      </c>
+      <c r="F173" t="s">
         <v>160</v>
-      </c>
-      <c r="E173" t="s">
-        <v>202</v>
-      </c>
-      <c r="F173" t="s">
-        <v>224</v>
       </c>
       <c r="G173" t="s">
         <v>226</v>
@@ -25661,13 +25661,13 @@
         <v>45008</v>
       </c>
       <c r="I173" s="1">
-        <v>906</v>
+        <v>914</v>
       </c>
       <c r="J173" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K173" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L173" s="1"/>
       <c r="M173" s="1">
@@ -25767,7 +25767,7 @@
         <v>0</v>
       </c>
       <c r="AS173" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT173" s="1">
         <v>0</v>
@@ -25790,10 +25790,10 @@
         <v>156346345</v>
       </c>
       <c r="D174" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E174" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F174" t="s">
         <v>224</v>
@@ -25805,7 +25805,7 @@
         <v>45008</v>
       </c>
       <c r="I174" s="1">
-        <v>906</v>
+        <v>914</v>
       </c>
       <c r="J174" s="1">
         <v>0</v>
@@ -25928,19 +25928,19 @@
         <v>68</v>
       </c>
       <c r="B175" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="C175" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D175" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="E175" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="F175" t="s">
-        <v>161</v>
+        <v>224</v>
       </c>
       <c r="G175" t="s">
         <v>226</v>
@@ -25949,13 +25949,13 @@
         <v>45008</v>
       </c>
       <c r="I175" s="1">
-        <v>906</v>
+        <v>914</v>
       </c>
       <c r="J175" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K175" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L175" s="1"/>
       <c r="M175" s="1">
@@ -25968,10 +25968,10 @@
         <v>1</v>
       </c>
       <c r="P175" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q175" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R175" s="1">
         <v>0</v>
@@ -26031,7 +26031,7 @@
         <v>0</v>
       </c>
       <c r="AK175" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL175" s="1">
         <v>0</v>
@@ -26055,7 +26055,7 @@
         <v>0</v>
       </c>
       <c r="AS175" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT175" s="1">
         <v>0</v>
@@ -26072,19 +26072,19 @@
         <v>69</v>
       </c>
       <c r="B176" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C176" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D176" t="s">
+        <v>155</v>
+      </c>
+      <c r="E176" t="s">
+        <v>197</v>
+      </c>
+      <c r="F176" t="s">
         <v>160</v>
-      </c>
-      <c r="E176" t="s">
-        <v>202</v>
-      </c>
-      <c r="F176" t="s">
-        <v>161</v>
       </c>
       <c r="G176" t="s">
         <v>226</v>
@@ -26093,7 +26093,7 @@
         <v>45009</v>
       </c>
       <c r="I176" s="1">
-        <v>907</v>
+        <v>915</v>
       </c>
       <c r="J176" s="1">
         <v>1</v>
@@ -26112,10 +26112,10 @@
         <v>1</v>
       </c>
       <c r="P176" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q176" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R176" s="1">
         <v>0</v>
@@ -26175,7 +26175,7 @@
         <v>0</v>
       </c>
       <c r="AK176" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL176" s="1">
         <v>0</v>
@@ -26199,7 +26199,7 @@
         <v>0</v>
       </c>
       <c r="AS176" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT176" s="1">
         <v>0</v>
@@ -26222,10 +26222,10 @@
         <v>156346345</v>
       </c>
       <c r="D177" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E177" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F177" t="s">
         <v>224</v>
@@ -26237,7 +26237,7 @@
         <v>45009</v>
       </c>
       <c r="I177" s="1">
-        <v>907</v>
+        <v>915</v>
       </c>
       <c r="J177" s="1">
         <v>0</v>
@@ -26360,16 +26360,16 @@
         <v>69</v>
       </c>
       <c r="B178" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C178" s="1">
         <v>1983</v>
       </c>
       <c r="D178" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E178" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F178" t="s">
         <v>224</v>
@@ -26381,7 +26381,7 @@
         <v>45009</v>
       </c>
       <c r="I178" s="1">
-        <v>907</v>
+        <v>915</v>
       </c>
       <c r="J178" s="1">
         <v>0</v>
@@ -26504,19 +26504,19 @@
         <v>69</v>
       </c>
       <c r="B179" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="C179" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D179" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="E179" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="F179" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G179" t="s">
         <v>226</v>
@@ -26525,7 +26525,7 @@
         <v>45009</v>
       </c>
       <c r="I179" s="1">
-        <v>907</v>
+        <v>915</v>
       </c>
       <c r="J179" s="1">
         <v>1</v>
@@ -26544,10 +26544,10 @@
         <v>1</v>
       </c>
       <c r="P179" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q179" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R179" s="1">
         <v>0</v>
@@ -26607,7 +26607,7 @@
         <v>0</v>
       </c>
       <c r="AK179" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL179" s="1">
         <v>0</v>
@@ -26631,7 +26631,7 @@
         <v>0</v>
       </c>
       <c r="AS179" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT179" s="1">
         <v>0</v>
@@ -26660,7 +26660,7 @@
         <v>183</v>
       </c>
       <c r="F180" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G180" t="s">
         <v>226</v>
@@ -26669,7 +26669,7 @@
         <v>45006</v>
       </c>
       <c r="I180" s="1">
-        <v>908</v>
+        <v>916</v>
       </c>
       <c r="J180" s="1">
         <v>1</v>
@@ -26804,7 +26804,7 @@
         <v>209</v>
       </c>
       <c r="F181" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G181" t="s">
         <v>226</v>
@@ -26813,7 +26813,7 @@
         <v>45006</v>
       </c>
       <c r="I181" s="1">
-        <v>909</v>
+        <v>917</v>
       </c>
       <c r="J181" s="1">
         <v>1</v>
@@ -26948,7 +26948,7 @@
         <v>183</v>
       </c>
       <c r="F182" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G182" t="s">
         <v>226</v>
@@ -26957,7 +26957,7 @@
         <v>45007</v>
       </c>
       <c r="I182" s="1">
-        <v>910</v>
+        <v>918</v>
       </c>
       <c r="J182" s="1">
         <v>1</v>
@@ -27092,7 +27092,7 @@
         <v>183</v>
       </c>
       <c r="F183" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G183" t="s">
         <v>226</v>
@@ -27101,7 +27101,7 @@
         <v>45006</v>
       </c>
       <c r="I183" s="1">
-        <v>911</v>
+        <v>919</v>
       </c>
       <c r="J183" s="1">
         <v>1</v>
@@ -27236,7 +27236,7 @@
         <v>183</v>
       </c>
       <c r="F184" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G184" t="s">
         <v>226</v>
@@ -27245,7 +27245,7 @@
         <v>45009</v>
       </c>
       <c r="I184" s="1">
-        <v>912</v>
+        <v>920</v>
       </c>
       <c r="J184" s="1">
         <v>1</v>
@@ -27368,19 +27368,19 @@
         <v>75</v>
       </c>
       <c r="B185" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C185" s="1">
-        <v>1983</v>
+        <v>88890</v>
       </c>
       <c r="D185" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E185" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F185" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G185" t="s">
         <v>226</v>
@@ -27389,7 +27389,7 @@
         <v>45008</v>
       </c>
       <c r="I185" s="1">
-        <v>913</v>
+        <v>921</v>
       </c>
       <c r="J185" s="1">
         <v>1</v>
@@ -27495,7 +27495,7 @@
         <v>0</v>
       </c>
       <c r="AS185" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT185" s="1">
         <v>0</v>
@@ -27512,19 +27512,19 @@
         <v>75</v>
       </c>
       <c r="B186" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="C186" s="1">
-        <v>33741</v>
+        <v>1983</v>
       </c>
       <c r="D186" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="E186" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="F186" t="s">
-        <v>224</v>
+        <v>160</v>
       </c>
       <c r="G186" t="s">
         <v>226</v>
@@ -27533,13 +27533,13 @@
         <v>45008</v>
       </c>
       <c r="I186" s="1">
-        <v>913</v>
+        <v>921</v>
       </c>
       <c r="J186" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K186" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L186" s="1"/>
       <c r="M186" s="1">
@@ -27591,7 +27591,7 @@
         <v>0</v>
       </c>
       <c r="AC186" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD186" s="1">
         <v>0</v>
@@ -27615,7 +27615,7 @@
         <v>0</v>
       </c>
       <c r="AK186" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL186" s="1">
         <v>0</v>
@@ -27656,19 +27656,19 @@
         <v>75</v>
       </c>
       <c r="B187" t="s">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="C187" s="1">
-        <v>3345</v>
+        <v>33741</v>
       </c>
       <c r="D187" t="s">
-        <v>155</v>
+        <v>179</v>
       </c>
       <c r="E187" t="s">
-        <v>197</v>
+        <v>220</v>
       </c>
       <c r="F187" t="s">
-        <v>161</v>
+        <v>224</v>
       </c>
       <c r="G187" t="s">
         <v>226</v>
@@ -27677,13 +27677,13 @@
         <v>45008</v>
       </c>
       <c r="I187" s="1">
-        <v>913</v>
+        <v>921</v>
       </c>
       <c r="J187" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K187" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L187" s="1"/>
       <c r="M187" s="1">
@@ -27696,10 +27696,10 @@
         <v>1</v>
       </c>
       <c r="P187" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q187" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R187" s="1">
         <v>0</v>
@@ -27735,7 +27735,7 @@
         <v>0</v>
       </c>
       <c r="AC187" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD187" s="1">
         <v>0</v>
@@ -27800,19 +27800,19 @@
         <v>75</v>
       </c>
       <c r="B188" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C188" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D188" t="s">
+        <v>155</v>
+      </c>
+      <c r="E188" t="s">
+        <v>197</v>
+      </c>
+      <c r="F188" t="s">
         <v>160</v>
-      </c>
-      <c r="E188" t="s">
-        <v>202</v>
-      </c>
-      <c r="F188" t="s">
-        <v>161</v>
       </c>
       <c r="G188" t="s">
         <v>226</v>
@@ -27821,7 +27821,7 @@
         <v>45008</v>
       </c>
       <c r="I188" s="1">
-        <v>913</v>
+        <v>921</v>
       </c>
       <c r="J188" s="1">
         <v>1</v>
@@ -27840,10 +27840,10 @@
         <v>1</v>
       </c>
       <c r="P188" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q188" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R188" s="1">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="AK188" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL188" s="1">
         <v>0</v>
@@ -27927,7 +27927,7 @@
         <v>0</v>
       </c>
       <c r="AS188" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT188" s="1">
         <v>0</v>
@@ -27944,19 +27944,19 @@
         <v>76</v>
       </c>
       <c r="B189" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C189" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D189" t="s">
+        <v>155</v>
+      </c>
+      <c r="E189" t="s">
+        <v>197</v>
+      </c>
+      <c r="F189" t="s">
         <v>160</v>
-      </c>
-      <c r="E189" t="s">
-        <v>202</v>
-      </c>
-      <c r="F189" t="s">
-        <v>161</v>
       </c>
       <c r="G189" t="s">
         <v>226</v>
@@ -27965,7 +27965,7 @@
         <v>45008</v>
       </c>
       <c r="I189" s="1">
-        <v>914</v>
+        <v>922</v>
       </c>
       <c r="J189" s="1">
         <v>1</v>
@@ -27984,10 +27984,10 @@
         <v>1</v>
       </c>
       <c r="P189" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q189" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R189" s="1">
         <v>0</v>
@@ -28047,7 +28047,7 @@
         <v>0</v>
       </c>
       <c r="AK189" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL189" s="1">
         <v>0</v>
@@ -28071,7 +28071,7 @@
         <v>0</v>
       </c>
       <c r="AS189" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT189" s="1">
         <v>0</v>
@@ -28088,19 +28088,19 @@
         <v>76</v>
       </c>
       <c r="B190" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="C190" s="1">
-        <v>3345</v>
+        <v>156346345</v>
       </c>
       <c r="D190" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="E190" t="s">
-        <v>197</v>
+        <v>160</v>
       </c>
       <c r="F190" t="s">
-        <v>161</v>
+        <v>224</v>
       </c>
       <c r="G190" t="s">
         <v>226</v>
@@ -28109,13 +28109,13 @@
         <v>45008</v>
       </c>
       <c r="I190" s="1">
-        <v>914</v>
+        <v>922</v>
       </c>
       <c r="J190" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K190" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L190" s="1"/>
       <c r="M190" s="1">
@@ -28128,10 +28128,10 @@
         <v>1</v>
       </c>
       <c r="P190" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q190" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R190" s="1">
         <v>0</v>
@@ -28191,7 +28191,7 @@
         <v>0</v>
       </c>
       <c r="AK190" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL190" s="1">
         <v>0</v>
@@ -28215,7 +28215,7 @@
         <v>0</v>
       </c>
       <c r="AS190" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT190" s="1">
         <v>0</v>
@@ -28232,19 +28232,19 @@
         <v>76</v>
       </c>
       <c r="B191" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C191" s="1">
         <v>1983</v>
       </c>
       <c r="D191" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E191" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F191" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G191" t="s">
         <v>226</v>
@@ -28253,7 +28253,7 @@
         <v>45008</v>
       </c>
       <c r="I191" s="1">
-        <v>914</v>
+        <v>922</v>
       </c>
       <c r="J191" s="1">
         <v>1</v>
@@ -28376,19 +28376,19 @@
         <v>76</v>
       </c>
       <c r="B192" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="C192" s="1">
-        <v>156346345</v>
+        <v>88890</v>
       </c>
       <c r="D192" t="s">
         <v>161</v>
       </c>
       <c r="E192" t="s">
-        <v>161</v>
+        <v>202</v>
       </c>
       <c r="F192" t="s">
-        <v>224</v>
+        <v>160</v>
       </c>
       <c r="G192" t="s">
         <v>226</v>
@@ -28397,13 +28397,13 @@
         <v>45008</v>
       </c>
       <c r="I192" s="1">
-        <v>914</v>
+        <v>922</v>
       </c>
       <c r="J192" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K192" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L192" s="1"/>
       <c r="M192" s="1">
@@ -28532,7 +28532,7 @@
         <v>183</v>
       </c>
       <c r="F193" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G193" t="s">
         <v>226</v>
@@ -28541,7 +28541,7 @@
         <v>45006</v>
       </c>
       <c r="I193" s="1">
-        <v>915</v>
+        <v>923</v>
       </c>
       <c r="J193" s="1">
         <v>1</v>
@@ -28664,19 +28664,19 @@
         <v>78</v>
       </c>
       <c r="B194" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C194" s="1">
-        <v>644007</v>
+        <v>446220</v>
       </c>
       <c r="D194" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E194" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F194" t="s">
-        <v>224</v>
+        <v>160</v>
       </c>
       <c r="G194" t="s">
         <v>226</v>
@@ -28685,13 +28685,13 @@
         <v>45006</v>
       </c>
       <c r="I194" s="1">
-        <v>916</v>
+        <v>924</v>
       </c>
       <c r="J194" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K194" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L194" s="1"/>
       <c r="M194" s="1">
@@ -28725,10 +28725,10 @@
         <v>0</v>
       </c>
       <c r="W194" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X194" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y194" s="1">
         <v>0</v>
@@ -28779,7 +28779,7 @@
         <v>0</v>
       </c>
       <c r="AO194" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP194" s="1">
         <v>0</v>
@@ -28808,16 +28808,16 @@
         <v>78</v>
       </c>
       <c r="B195" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C195" s="1">
-        <v>119478</v>
+        <v>644007</v>
       </c>
       <c r="D195" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="E195" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="F195" t="s">
         <v>224</v>
@@ -28829,7 +28829,7 @@
         <v>45006</v>
       </c>
       <c r="I195" s="1">
-        <v>916</v>
+        <v>924</v>
       </c>
       <c r="J195" s="1">
         <v>0</v>
@@ -28923,7 +28923,7 @@
         <v>0</v>
       </c>
       <c r="AO195" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP195" s="1">
         <v>0</v>
@@ -28973,7 +28973,7 @@
         <v>45006</v>
       </c>
       <c r="I196" s="1">
-        <v>916</v>
+        <v>924</v>
       </c>
       <c r="J196" s="1">
         <v>0</v>
@@ -29096,19 +29096,19 @@
         <v>78</v>
       </c>
       <c r="B197" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C197" s="1">
-        <v>446220</v>
+        <v>119478</v>
       </c>
       <c r="D197" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E197" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F197" t="s">
-        <v>161</v>
+        <v>224</v>
       </c>
       <c r="G197" t="s">
         <v>226</v>
@@ -29117,13 +29117,13 @@
         <v>45006</v>
       </c>
       <c r="I197" s="1">
-        <v>916</v>
+        <v>924</v>
       </c>
       <c r="J197" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K197" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L197" s="1"/>
       <c r="M197" s="1">
@@ -29157,10 +29157,10 @@
         <v>0</v>
       </c>
       <c r="W197" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X197" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y197" s="1">
         <v>0</v>
@@ -29240,16 +29240,16 @@
         <v>78</v>
       </c>
       <c r="B198" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C198" s="1">
         <v>637578</v>
       </c>
       <c r="D198" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E198" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F198" t="s">
         <v>224</v>
@@ -29261,7 +29261,7 @@
         <v>45006</v>
       </c>
       <c r="I198" s="1">
-        <v>916</v>
+        <v>924</v>
       </c>
       <c r="J198" s="1">
         <v>0</v>
@@ -29396,7 +29396,7 @@
         <v>183</v>
       </c>
       <c r="F199" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G199" t="s">
         <v>226</v>
@@ -29405,7 +29405,7 @@
         <v>45009</v>
       </c>
       <c r="I199" s="1">
-        <v>917</v>
+        <v>925</v>
       </c>
       <c r="J199" s="1">
         <v>1</v>
@@ -29540,7 +29540,7 @@
         <v>183</v>
       </c>
       <c r="F200" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G200" t="s">
         <v>226</v>
@@ -29549,7 +29549,7 @@
         <v>45009</v>
       </c>
       <c r="I200" s="1">
-        <v>918</v>
+        <v>926</v>
       </c>
       <c r="J200" s="1">
         <v>1</v>
@@ -29684,7 +29684,7 @@
         <v>183</v>
       </c>
       <c r="F201" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G201" t="s">
         <v>226</v>
@@ -29693,7 +29693,7 @@
         <v>45006</v>
       </c>
       <c r="I201" s="1">
-        <v>919</v>
+        <v>927</v>
       </c>
       <c r="J201" s="1">
         <v>1</v>
@@ -29828,7 +29828,7 @@
         <v>197</v>
       </c>
       <c r="F202" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G202" t="s">
         <v>226</v>
@@ -29837,7 +29837,7 @@
         <v>45009</v>
       </c>
       <c r="I202" s="1">
-        <v>920</v>
+        <v>928</v>
       </c>
       <c r="J202" s="1">
         <v>1</v>
@@ -29960,19 +29960,17 @@
         <v>82</v>
       </c>
       <c r="B203" t="s">
-        <v>126</v>
-      </c>
-      <c r="C203" s="1">
-        <v>156346345</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="C203" s="1"/>
       <c r="D203" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E203" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F203" t="s">
-        <v>161</v>
+        <v>224</v>
       </c>
       <c r="G203" t="s">
         <v>226</v>
@@ -29981,13 +29979,13 @@
         <v>45009</v>
       </c>
       <c r="I203" s="1">
-        <v>920</v>
+        <v>928</v>
       </c>
       <c r="J203" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K203" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L203" s="1"/>
       <c r="M203" s="1">
@@ -30087,7 +30085,7 @@
         <v>0</v>
       </c>
       <c r="AS203" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT203" s="1">
         <v>0</v>
@@ -30104,16 +30102,16 @@
         <v>82</v>
       </c>
       <c r="B204" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="C204" s="1">
-        <v>165365057</v>
+        <v>88890</v>
       </c>
       <c r="D204" t="s">
         <v>161</v>
       </c>
       <c r="E204" t="s">
-        <v>161</v>
+        <v>202</v>
       </c>
       <c r="F204" t="s">
         <v>224</v>
@@ -30125,7 +30123,7 @@
         <v>45009</v>
       </c>
       <c r="I204" s="1">
-        <v>920</v>
+        <v>928</v>
       </c>
       <c r="J204" s="1">
         <v>0</v>
@@ -30248,17 +30246,19 @@
         <v>82</v>
       </c>
       <c r="B205" t="s">
-        <v>135</v>
-      </c>
-      <c r="C205" s="1"/>
+        <v>126</v>
+      </c>
+      <c r="C205" s="1">
+        <v>156346345</v>
+      </c>
       <c r="D205" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E205" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F205" t="s">
-        <v>224</v>
+        <v>160</v>
       </c>
       <c r="G205" t="s">
         <v>226</v>
@@ -30267,13 +30267,13 @@
         <v>45009</v>
       </c>
       <c r="I205" s="1">
-        <v>920</v>
+        <v>928</v>
       </c>
       <c r="J205" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K205" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L205" s="1"/>
       <c r="M205" s="1">
@@ -30373,7 +30373,7 @@
         <v>0</v>
       </c>
       <c r="AS205" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT205" s="1">
         <v>0</v>
@@ -30390,16 +30390,16 @@
         <v>82</v>
       </c>
       <c r="B206" t="s">
-        <v>112</v>
+        <v>135</v>
       </c>
       <c r="C206" s="1">
-        <v>88890</v>
+        <v>91725431</v>
       </c>
       <c r="D206" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="E206" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="F206" t="s">
         <v>224</v>
@@ -30411,7 +30411,7 @@
         <v>45009</v>
       </c>
       <c r="I206" s="1">
-        <v>920</v>
+        <v>928</v>
       </c>
       <c r="J206" s="1">
         <v>0</v>
@@ -30517,7 +30517,7 @@
         <v>0</v>
       </c>
       <c r="AS206" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT206" s="1">
         <v>0</v>
@@ -30537,13 +30537,13 @@
         <v>136</v>
       </c>
       <c r="C207" s="1">
-        <v>91725431</v>
+        <v>165365057</v>
       </c>
       <c r="D207" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="E207" t="s">
-        <v>221</v>
+        <v>160</v>
       </c>
       <c r="F207" t="s">
         <v>224</v>
@@ -30555,7 +30555,7 @@
         <v>45009</v>
       </c>
       <c r="I207" s="1">
-        <v>920</v>
+        <v>928</v>
       </c>
       <c r="J207" s="1">
         <v>0</v>
@@ -30661,7 +30661,7 @@
         <v>0</v>
       </c>
       <c r="AS207" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT207" s="1">
         <v>0</v>
@@ -30678,19 +30678,19 @@
         <v>83</v>
       </c>
       <c r="B208" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C208" s="1">
         <v>88890</v>
       </c>
       <c r="D208" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E208" t="s">
         <v>202</v>
       </c>
       <c r="F208" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G208" t="s">
         <v>226</v>
@@ -30699,7 +30699,7 @@
         <v>45008</v>
       </c>
       <c r="I208" s="1">
-        <v>921</v>
+        <v>929</v>
       </c>
       <c r="J208" s="1">
         <v>1</v>
@@ -30822,19 +30822,19 @@
         <v>83</v>
       </c>
       <c r="B209" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C209" s="1">
         <v>1983</v>
       </c>
       <c r="D209" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E209" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F209" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G209" t="s">
         <v>226</v>
@@ -30843,7 +30843,7 @@
         <v>45008</v>
       </c>
       <c r="I209" s="1">
-        <v>921</v>
+        <v>929</v>
       </c>
       <c r="J209" s="1">
         <v>1</v>
@@ -30978,7 +30978,7 @@
         <v>197</v>
       </c>
       <c r="F210" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G210" t="s">
         <v>226</v>
@@ -30987,7 +30987,7 @@
         <v>45008</v>
       </c>
       <c r="I210" s="1">
-        <v>921</v>
+        <v>929</v>
       </c>
       <c r="J210" s="1">
         <v>1</v>
@@ -31122,7 +31122,7 @@
         <v>197</v>
       </c>
       <c r="F211" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G211" t="s">
         <v>226</v>
@@ -31131,7 +31131,7 @@
         <v>45008</v>
       </c>
       <c r="I211" s="1">
-        <v>922</v>
+        <v>930</v>
       </c>
       <c r="J211" s="1">
         <v>1</v>
@@ -31254,16 +31254,16 @@
         <v>84</v>
       </c>
       <c r="B212" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="C212" s="1">
-        <v>165365057</v>
+        <v>12107</v>
       </c>
       <c r="D212" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="E212" t="s">
-        <v>161</v>
+        <v>207</v>
       </c>
       <c r="F212" t="s">
         <v>224</v>
@@ -31275,7 +31275,7 @@
         <v>45008</v>
       </c>
       <c r="I212" s="1">
-        <v>922</v>
+        <v>930</v>
       </c>
       <c r="J212" s="1">
         <v>0</v>
@@ -31398,19 +31398,19 @@
         <v>84</v>
       </c>
       <c r="B213" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C213" s="1">
-        <v>12107</v>
+        <v>1983</v>
       </c>
       <c r="D213" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E213" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F213" t="s">
-        <v>224</v>
+        <v>160</v>
       </c>
       <c r="G213" t="s">
         <v>226</v>
@@ -31419,13 +31419,13 @@
         <v>45008</v>
       </c>
       <c r="I213" s="1">
-        <v>922</v>
+        <v>930</v>
       </c>
       <c r="J213" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K213" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L213" s="1"/>
       <c r="M213" s="1">
@@ -31525,7 +31525,7 @@
         <v>0</v>
       </c>
       <c r="AS213" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT213" s="1">
         <v>0</v>
@@ -31542,16 +31542,16 @@
         <v>84</v>
       </c>
       <c r="B214" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="C214" s="1">
-        <v>88890</v>
+        <v>156346345</v>
       </c>
       <c r="D214" t="s">
         <v>160</v>
       </c>
       <c r="E214" t="s">
-        <v>202</v>
+        <v>160</v>
       </c>
       <c r="F214" t="s">
         <v>224</v>
@@ -31563,7 +31563,7 @@
         <v>45008</v>
       </c>
       <c r="I214" s="1">
-        <v>922</v>
+        <v>930</v>
       </c>
       <c r="J214" s="1">
         <v>0</v>
@@ -31686,19 +31686,19 @@
         <v>84</v>
       </c>
       <c r="B215" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="C215" s="1">
-        <v>1983</v>
+        <v>165365057</v>
       </c>
       <c r="D215" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E215" t="s">
-        <v>205</v>
+        <v>160</v>
       </c>
       <c r="F215" t="s">
-        <v>161</v>
+        <v>224</v>
       </c>
       <c r="G215" t="s">
         <v>226</v>
@@ -31707,13 +31707,13 @@
         <v>45008</v>
       </c>
       <c r="I215" s="1">
-        <v>922</v>
+        <v>930</v>
       </c>
       <c r="J215" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K215" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L215" s="1"/>
       <c r="M215" s="1">
@@ -31813,7 +31813,7 @@
         <v>0</v>
       </c>
       <c r="AS215" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT215" s="1">
         <v>0</v>
@@ -31830,16 +31830,16 @@
         <v>84</v>
       </c>
       <c r="B216" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="C216" s="1">
-        <v>156346345</v>
+        <v>88890</v>
       </c>
       <c r="D216" t="s">
         <v>161</v>
       </c>
       <c r="E216" t="s">
-        <v>161</v>
+        <v>202</v>
       </c>
       <c r="F216" t="s">
         <v>224</v>
@@ -31851,7 +31851,7 @@
         <v>45008</v>
       </c>
       <c r="I216" s="1">
-        <v>922</v>
+        <v>930</v>
       </c>
       <c r="J216" s="1">
         <v>0</v>
@@ -31974,16 +31974,16 @@
         <v>85</v>
       </c>
       <c r="B217" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="C217" s="1">
-        <v>3676</v>
+        <v>88890</v>
       </c>
       <c r="D217" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="E217" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="F217" t="s">
         <v>224</v>
@@ -31995,7 +31995,7 @@
         <v>45008</v>
       </c>
       <c r="I217" s="1">
-        <v>923</v>
+        <v>931</v>
       </c>
       <c r="J217" s="1">
         <v>0</v>
@@ -32092,7 +32092,7 @@
         <v>0</v>
       </c>
       <c r="AP217" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ217" s="1">
         <v>0</v>
@@ -32101,7 +32101,7 @@
         <v>0</v>
       </c>
       <c r="AS217" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT217" s="1">
         <v>0</v>
@@ -32118,19 +32118,19 @@
         <v>85</v>
       </c>
       <c r="B218" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C218" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D218" t="s">
+        <v>155</v>
+      </c>
+      <c r="E218" t="s">
+        <v>197</v>
+      </c>
+      <c r="F218" t="s">
         <v>160</v>
-      </c>
-      <c r="E218" t="s">
-        <v>202</v>
-      </c>
-      <c r="F218" t="s">
-        <v>224</v>
       </c>
       <c r="G218" t="s">
         <v>226</v>
@@ -32139,13 +32139,13 @@
         <v>45008</v>
       </c>
       <c r="I218" s="1">
-        <v>923</v>
+        <v>931</v>
       </c>
       <c r="J218" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K218" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L218" s="1"/>
       <c r="M218" s="1">
@@ -32158,10 +32158,10 @@
         <v>1</v>
       </c>
       <c r="P218" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q218" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R218" s="1">
         <v>0</v>
@@ -32221,7 +32221,7 @@
         <v>0</v>
       </c>
       <c r="AK218" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL218" s="1">
         <v>0</v>
@@ -32245,7 +32245,7 @@
         <v>0</v>
       </c>
       <c r="AS218" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT218" s="1">
         <v>0</v>
@@ -32262,19 +32262,19 @@
         <v>85</v>
       </c>
       <c r="B219" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="C219" s="1">
-        <v>3345</v>
+        <v>1983</v>
       </c>
       <c r="D219" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="E219" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="F219" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G219" t="s">
         <v>226</v>
@@ -32283,7 +32283,7 @@
         <v>45008</v>
       </c>
       <c r="I219" s="1">
-        <v>923</v>
+        <v>931</v>
       </c>
       <c r="J219" s="1">
         <v>1</v>
@@ -32302,10 +32302,10 @@
         <v>1</v>
       </c>
       <c r="P219" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q219" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R219" s="1">
         <v>0</v>
@@ -32365,7 +32365,7 @@
         <v>0</v>
       </c>
       <c r="AK219" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL219" s="1">
         <v>0</v>
@@ -32406,19 +32406,19 @@
         <v>85</v>
       </c>
       <c r="B220" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="C220" s="1">
-        <v>1983</v>
+        <v>3676</v>
       </c>
       <c r="D220" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="E220" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="F220" t="s">
-        <v>161</v>
+        <v>224</v>
       </c>
       <c r="G220" t="s">
         <v>226</v>
@@ -32427,13 +32427,13 @@
         <v>45008</v>
       </c>
       <c r="I220" s="1">
-        <v>923</v>
+        <v>931</v>
       </c>
       <c r="J220" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K220" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L220" s="1"/>
       <c r="M220" s="1">
@@ -32524,7 +32524,7 @@
         <v>0</v>
       </c>
       <c r="AP220" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ220" s="1">
         <v>0</v>
@@ -32562,7 +32562,7 @@
         <v>183</v>
       </c>
       <c r="F221" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G221" t="s">
         <v>226</v>
@@ -32571,7 +32571,7 @@
         <v>45009</v>
       </c>
       <c r="I221" s="1">
-        <v>924</v>
+        <v>932</v>
       </c>
       <c r="J221" s="1">
         <v>1</v>
@@ -32694,16 +32694,16 @@
         <v>87</v>
       </c>
       <c r="B222" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C222" s="1">
-        <v>892</v>
+        <v>4680</v>
       </c>
       <c r="D222" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E222" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="F222" t="s">
         <v>224</v>
@@ -32715,7 +32715,7 @@
         <v>45009</v>
       </c>
       <c r="I222" s="1">
-        <v>925</v>
+        <v>933</v>
       </c>
       <c r="J222" s="1">
         <v>0</v>
@@ -32797,7 +32797,7 @@
         <v>0</v>
       </c>
       <c r="AK222" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL222" s="1">
         <v>0</v>
@@ -32812,10 +32812,10 @@
         <v>0</v>
       </c>
       <c r="AP222" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ222" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR222" s="1">
         <v>0</v>
@@ -32859,7 +32859,7 @@
         <v>45009</v>
       </c>
       <c r="I223" s="1">
-        <v>925</v>
+        <v>933</v>
       </c>
       <c r="J223" s="1">
         <v>0</v>
@@ -32982,16 +32982,16 @@
         <v>87</v>
       </c>
       <c r="B224" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C224" s="1">
-        <v>4680</v>
+        <v>892</v>
       </c>
       <c r="D224" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E224" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F224" t="s">
         <v>224</v>
@@ -33003,7 +33003,7 @@
         <v>45009</v>
       </c>
       <c r="I224" s="1">
-        <v>925</v>
+        <v>933</v>
       </c>
       <c r="J224" s="1">
         <v>0</v>
@@ -33085,7 +33085,7 @@
         <v>0</v>
       </c>
       <c r="AK224" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL224" s="1">
         <v>0</v>
@@ -33100,10 +33100,10 @@
         <v>0</v>
       </c>
       <c r="AP224" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ224" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR224" s="1">
         <v>0</v>
@@ -33126,19 +33126,19 @@
         <v>87</v>
       </c>
       <c r="B225" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C225" s="1">
         <v>5462328</v>
       </c>
       <c r="D225" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E225" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F225" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G225" t="s">
         <v>226</v>
@@ -33147,7 +33147,7 @@
         <v>45009</v>
       </c>
       <c r="I225" s="1">
-        <v>925</v>
+        <v>933</v>
       </c>
       <c r="J225" s="1">
         <v>1</v>
@@ -33270,19 +33270,19 @@
         <v>87</v>
       </c>
       <c r="B226" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C226" s="1">
         <v>5486550</v>
       </c>
       <c r="D226" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E226" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F226" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G226" t="s">
         <v>226</v>
@@ -33291,7 +33291,7 @@
         <v>45009</v>
       </c>
       <c r="I226" s="1">
-        <v>925</v>
+        <v>933</v>
       </c>
       <c r="J226" s="1">
         <v>1</v>
@@ -33426,7 +33426,7 @@
         <v>183</v>
       </c>
       <c r="F227" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G227" t="s">
         <v>226</v>
@@ -33435,7 +33435,7 @@
         <v>45009</v>
       </c>
       <c r="I227" s="1">
-        <v>926</v>
+        <v>934</v>
       </c>
       <c r="J227" s="1">
         <v>1</v>
@@ -33558,16 +33558,16 @@
         <v>89</v>
       </c>
       <c r="B228" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="C228" s="1">
-        <v>3345</v>
+        <v>156346345</v>
       </c>
       <c r="D228" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="E228" t="s">
-        <v>197</v>
+        <v>160</v>
       </c>
       <c r="F228" t="s">
         <v>224</v>
@@ -33579,7 +33579,7 @@
         <v>45008</v>
       </c>
       <c r="I228" s="1">
-        <v>927</v>
+        <v>935</v>
       </c>
       <c r="J228" s="1">
         <v>0</v>
@@ -33601,7 +33601,7 @@
         <v>0</v>
       </c>
       <c r="Q228" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R228" s="1">
         <v>0</v>
@@ -33661,7 +33661,7 @@
         <v>0</v>
       </c>
       <c r="AK228" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL228" s="1">
         <v>0</v>
@@ -33685,7 +33685,7 @@
         <v>0</v>
       </c>
       <c r="AS228" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT228" s="1">
         <v>0</v>
@@ -33702,13 +33702,13 @@
         <v>89</v>
       </c>
       <c r="B229" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C229" s="1">
         <v>88890</v>
       </c>
       <c r="D229" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E229" t="s">
         <v>202</v>
@@ -33723,7 +33723,7 @@
         <v>45008</v>
       </c>
       <c r="I229" s="1">
-        <v>927</v>
+        <v>935</v>
       </c>
       <c r="J229" s="1">
         <v>0</v>
@@ -33846,16 +33846,16 @@
         <v>89</v>
       </c>
       <c r="B230" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="C230" s="1">
-        <v>156346345</v>
+        <v>3345</v>
       </c>
       <c r="D230" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="E230" t="s">
-        <v>161</v>
+        <v>197</v>
       </c>
       <c r="F230" t="s">
         <v>224</v>
@@ -33867,7 +33867,7 @@
         <v>45008</v>
       </c>
       <c r="I230" s="1">
-        <v>927</v>
+        <v>935</v>
       </c>
       <c r="J230" s="1">
         <v>0</v>
@@ -33889,7 +33889,7 @@
         <v>0</v>
       </c>
       <c r="Q230" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R230" s="1">
         <v>0</v>
@@ -33949,7 +33949,7 @@
         <v>0</v>
       </c>
       <c r="AK230" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL230" s="1">
         <v>0</v>
@@ -33973,7 +33973,7 @@
         <v>0</v>
       </c>
       <c r="AS230" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT230" s="1">
         <v>0</v>
@@ -33990,19 +33990,19 @@
         <v>89</v>
       </c>
       <c r="B231" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C231" s="1">
         <v>1983</v>
       </c>
       <c r="D231" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E231" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F231" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G231" t="s">
         <v>226</v>
@@ -34011,7 +34011,7 @@
         <v>45008</v>
       </c>
       <c r="I231" s="1">
-        <v>927</v>
+        <v>935</v>
       </c>
       <c r="J231" s="1">
         <v>1</v>
@@ -34134,19 +34134,19 @@
         <v>90</v>
       </c>
       <c r="B232" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C232" s="1">
         <v>1983</v>
       </c>
       <c r="D232" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E232" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F232" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G232" t="s">
         <v>226</v>
@@ -34155,7 +34155,7 @@
         <v>45008</v>
       </c>
       <c r="I232" s="1">
-        <v>928</v>
+        <v>936</v>
       </c>
       <c r="J232" s="1">
         <v>1</v>
@@ -34278,19 +34278,19 @@
         <v>90</v>
       </c>
       <c r="B233" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="C233" s="1">
-        <v>3345</v>
+        <v>88890</v>
       </c>
       <c r="D233" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="E233" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="F233" t="s">
-        <v>161</v>
+        <v>224</v>
       </c>
       <c r="G233" t="s">
         <v>226</v>
@@ -34299,13 +34299,13 @@
         <v>45008</v>
       </c>
       <c r="I233" s="1">
-        <v>928</v>
+        <v>936</v>
       </c>
       <c r="J233" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K233" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L233" s="1"/>
       <c r="M233" s="1">
@@ -34318,10 +34318,10 @@
         <v>1</v>
       </c>
       <c r="P233" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q233" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R233" s="1">
         <v>0</v>
@@ -34381,7 +34381,7 @@
         <v>0</v>
       </c>
       <c r="AK233" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL233" s="1">
         <v>0</v>
@@ -34405,7 +34405,7 @@
         <v>0</v>
       </c>
       <c r="AS233" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT233" s="1">
         <v>0</v>
@@ -34422,19 +34422,19 @@
         <v>90</v>
       </c>
       <c r="B234" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C234" s="1">
-        <v>88890</v>
+        <v>3345</v>
       </c>
       <c r="D234" t="s">
+        <v>155</v>
+      </c>
+      <c r="E234" t="s">
+        <v>197</v>
+      </c>
+      <c r="F234" t="s">
         <v>160</v>
-      </c>
-      <c r="E234" t="s">
-        <v>202</v>
-      </c>
-      <c r="F234" t="s">
-        <v>224</v>
       </c>
       <c r="G234" t="s">
         <v>226</v>
@@ -34443,13 +34443,13 @@
         <v>45008</v>
       </c>
       <c r="I234" s="1">
-        <v>928</v>
+        <v>936</v>
       </c>
       <c r="J234" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K234" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L234" s="1"/>
       <c r="M234" s="1">
@@ -34462,10 +34462,10 @@
         <v>1</v>
       </c>
       <c r="P234" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q234" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R234" s="1">
         <v>0</v>
@@ -34525,7 +34525,7 @@
         <v>0</v>
       </c>
       <c r="AK234" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL234" s="1">
         <v>0</v>
@@ -34549,7 +34549,7 @@
         <v>0</v>
       </c>
       <c r="AS234" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT234" s="1">
         <v>0</v>
